--- a/src/test/resources/data/NewLeadTestData.xlsx
+++ b/src/test/resources/data/NewLeadTestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ntpduong\Project\Selenium_Java\src\test\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B06A9ED4-12FD-4831-87C0-A86BF8B5A5B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{296E7564-E472-4BDD-86C0-A68AF182C917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-24690" yWindow="1260" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28002,9 +28002,9 @@
   </sheetPr>
   <dimension ref="A1:V701"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A638" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T1" sqref="T1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>

--- a/src/test/resources/data/NewLeadTestData.xlsx
+++ b/src/test/resources/data/NewLeadTestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ntpduong\Project\Selenium_Java\src\test\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{296E7564-E472-4BDD-86C0-A68AF182C917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94A997C7-B570-4B9E-B970-D13A62D80BCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-24690" yWindow="1260" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12630" uniqueCount="9168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12631" uniqueCount="9168">
   <si>
     <t>used</t>
   </si>
@@ -27519,9 +27519,6 @@
     <t>Test ISA</t>
   </si>
   <si>
-    <t>interested vehicle</t>
-  </si>
-  <si>
     <t>SEAT Ateca</t>
   </si>
   <si>
@@ -27538,6 +27535,9 @@
   </si>
   <si>
     <t>SEAT Leon</t>
+  </si>
+  <si>
+    <t>vehicle interest</t>
   </si>
 </sst>
 </file>
@@ -28002,9 +28002,9 @@
   </sheetPr>
   <dimension ref="A1:V701"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
+      <selection pane="bottomLeft" activeCell="V5" sqref="V5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -28088,7 +28088,7 @@
         <v>17</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>9161</v>
+        <v>9167</v>
       </c>
       <c r="T1" s="3" t="s">
         <v>9159</v>
@@ -28156,7 +28156,7 @@
         <v>781</v>
       </c>
       <c r="S2" s="9" t="s">
-        <v>9162</v>
+        <v>9161</v>
       </c>
       <c r="T2" s="9" t="s">
         <v>9160</v>
@@ -28221,7 +28221,7 @@
         <v>1354</v>
       </c>
       <c r="S3" s="9" t="s">
-        <v>9163</v>
+        <v>9162</v>
       </c>
       <c r="T3" s="9" t="s">
         <v>9160</v>
@@ -28286,7 +28286,7 @@
         <v>949</v>
       </c>
       <c r="S4" s="9" t="s">
-        <v>9163</v>
+        <v>9162</v>
       </c>
       <c r="T4" s="9" t="s">
         <v>9160</v>
@@ -28351,7 +28351,7 @@
         <v>1419</v>
       </c>
       <c r="S5" s="9" t="s">
-        <v>9163</v>
+        <v>9162</v>
       </c>
       <c r="T5" s="9" t="s">
         <v>9160</v>
@@ -28416,7 +28416,7 @@
         <v>119</v>
       </c>
       <c r="S6" s="9" t="s">
-        <v>9164</v>
+        <v>9163</v>
       </c>
       <c r="T6" s="9" t="s">
         <v>9160</v>
@@ -28481,7 +28481,7 @@
         <v>101</v>
       </c>
       <c r="S7" s="9" t="s">
-        <v>9162</v>
+        <v>9161</v>
       </c>
       <c r="T7" s="9" t="s">
         <v>9160</v>
@@ -28546,7 +28546,7 @@
         <v>845</v>
       </c>
       <c r="S8" s="9" t="s">
-        <v>9162</v>
+        <v>9161</v>
       </c>
       <c r="T8" s="9" t="s">
         <v>9160</v>
@@ -28611,7 +28611,7 @@
         <v>850</v>
       </c>
       <c r="S9" s="9" t="s">
-        <v>9165</v>
+        <v>9164</v>
       </c>
       <c r="T9" s="9" t="s">
         <v>9160</v>
@@ -28676,7 +28676,7 @@
         <v>38</v>
       </c>
       <c r="S10" s="9" t="s">
-        <v>9165</v>
+        <v>9164</v>
       </c>
       <c r="T10" s="9" t="s">
         <v>9160</v>
@@ -28686,7 +28686,9 @@
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
+      <c r="A11" s="5" t="s">
+        <v>9158</v>
+      </c>
       <c r="B11" s="5">
         <v>1309</v>
       </c>
@@ -28739,7 +28741,7 @@
         <v>1196</v>
       </c>
       <c r="S11" s="9" t="s">
-        <v>9166</v>
+        <v>9165</v>
       </c>
       <c r="T11" s="9" t="s">
         <v>9160</v>
@@ -28802,7 +28804,7 @@
         <v>1417</v>
       </c>
       <c r="S12" s="9" t="s">
-        <v>9162</v>
+        <v>9161</v>
       </c>
       <c r="T12" s="9" t="s">
         <v>9160</v>
@@ -28865,7 +28867,7 @@
         <v>987</v>
       </c>
       <c r="S13" s="9" t="s">
-        <v>9165</v>
+        <v>9164</v>
       </c>
       <c r="T13" s="9" t="s">
         <v>9160</v>
@@ -28928,7 +28930,7 @@
         <v>1255</v>
       </c>
       <c r="S14" s="9" t="s">
-        <v>9165</v>
+        <v>9164</v>
       </c>
       <c r="T14" s="9" t="s">
         <v>9160</v>
@@ -28991,7 +28993,7 @@
         <v>990</v>
       </c>
       <c r="S15" s="9" t="s">
-        <v>9167</v>
+        <v>9166</v>
       </c>
       <c r="T15" s="9" t="s">
         <v>9160</v>
@@ -29054,7 +29056,7 @@
         <v>782</v>
       </c>
       <c r="S16" s="9" t="s">
-        <v>9165</v>
+        <v>9164</v>
       </c>
       <c r="T16" s="9" t="s">
         <v>9160</v>
@@ -29117,7 +29119,7 @@
         <v>658</v>
       </c>
       <c r="S17" s="9" t="s">
-        <v>9164</v>
+        <v>9163</v>
       </c>
       <c r="T17" s="9" t="s">
         <v>9160</v>
@@ -29180,7 +29182,7 @@
         <v>1299</v>
       </c>
       <c r="S18" s="9" t="s">
-        <v>9164</v>
+        <v>9163</v>
       </c>
       <c r="T18" s="9" t="s">
         <v>9160</v>
@@ -29243,7 +29245,7 @@
         <v>981</v>
       </c>
       <c r="S19" s="9" t="s">
-        <v>9164</v>
+        <v>9163</v>
       </c>
       <c r="T19" s="9" t="s">
         <v>9160</v>
@@ -29306,7 +29308,7 @@
         <v>886</v>
       </c>
       <c r="S20" s="9" t="s">
-        <v>9166</v>
+        <v>9165</v>
       </c>
       <c r="T20" s="9" t="s">
         <v>9160</v>
@@ -29369,7 +29371,7 @@
         <v>569</v>
       </c>
       <c r="S21" s="9" t="s">
-        <v>9163</v>
+        <v>9162</v>
       </c>
       <c r="T21" s="9" t="s">
         <v>9160</v>
@@ -29432,7 +29434,7 @@
         <v>157</v>
       </c>
       <c r="S22" s="9" t="s">
-        <v>9166</v>
+        <v>9165</v>
       </c>
       <c r="T22" s="9" t="s">
         <v>9160</v>
@@ -29495,7 +29497,7 @@
         <v>1716</v>
       </c>
       <c r="S23" s="9" t="s">
-        <v>9167</v>
+        <v>9166</v>
       </c>
       <c r="T23" s="9" t="s">
         <v>9160</v>
@@ -29558,7 +29560,7 @@
         <v>401</v>
       </c>
       <c r="S24" s="9" t="s">
-        <v>9163</v>
+        <v>9162</v>
       </c>
       <c r="T24" s="9" t="s">
         <v>9160</v>
@@ -29621,7 +29623,7 @@
         <v>787</v>
       </c>
       <c r="S25" s="9" t="s">
-        <v>9165</v>
+        <v>9164</v>
       </c>
       <c r="T25" s="9" t="s">
         <v>9160</v>
@@ -29684,7 +29686,7 @@
         <v>1035</v>
       </c>
       <c r="S26" s="9" t="s">
-        <v>9167</v>
+        <v>9166</v>
       </c>
       <c r="T26" s="9" t="s">
         <v>9160</v>
@@ -29747,7 +29749,7 @@
         <v>48</v>
       </c>
       <c r="S27" s="9" t="s">
-        <v>9167</v>
+        <v>9166</v>
       </c>
       <c r="T27" s="9" t="s">
         <v>9160</v>
@@ -29810,7 +29812,7 @@
         <v>675</v>
       </c>
       <c r="S28" s="9" t="s">
-        <v>9165</v>
+        <v>9164</v>
       </c>
       <c r="T28" s="9" t="s">
         <v>9160</v>
@@ -29873,7 +29875,7 @@
         <v>1086</v>
       </c>
       <c r="S29" s="9" t="s">
-        <v>9163</v>
+        <v>9162</v>
       </c>
       <c r="T29" s="9" t="s">
         <v>9160</v>
@@ -29936,7 +29938,7 @@
         <v>1173</v>
       </c>
       <c r="S30" s="9" t="s">
-        <v>9162</v>
+        <v>9161</v>
       </c>
       <c r="T30" s="9" t="s">
         <v>9160</v>
@@ -29999,7 +30001,7 @@
         <v>219</v>
       </c>
       <c r="S31" s="9" t="s">
-        <v>9165</v>
+        <v>9164</v>
       </c>
       <c r="T31" s="9" t="s">
         <v>9160</v>
@@ -30062,7 +30064,7 @@
         <v>355</v>
       </c>
       <c r="S32" s="9" t="s">
-        <v>9166</v>
+        <v>9165</v>
       </c>
       <c r="T32" s="9" t="s">
         <v>9160</v>
@@ -30125,7 +30127,7 @@
         <v>952</v>
       </c>
       <c r="S33" s="9" t="s">
-        <v>9163</v>
+        <v>9162</v>
       </c>
       <c r="T33" s="9" t="s">
         <v>9160</v>
@@ -30188,7 +30190,7 @@
         <v>1221</v>
       </c>
       <c r="S34" s="9" t="s">
-        <v>9165</v>
+        <v>9164</v>
       </c>
       <c r="T34" s="9" t="s">
         <v>9160</v>
@@ -30251,7 +30253,7 @@
         <v>1182</v>
       </c>
       <c r="S35" s="9" t="s">
-        <v>9163</v>
+        <v>9162</v>
       </c>
       <c r="T35" s="9" t="s">
         <v>9160</v>
@@ -30314,7 +30316,7 @@
         <v>470</v>
       </c>
       <c r="S36" s="9" t="s">
-        <v>9165</v>
+        <v>9164</v>
       </c>
       <c r="T36" s="9" t="s">
         <v>9160</v>
@@ -30377,7 +30379,7 @@
         <v>74</v>
       </c>
       <c r="S37" s="9" t="s">
-        <v>9166</v>
+        <v>9165</v>
       </c>
       <c r="T37" s="9" t="s">
         <v>9160</v>
@@ -30440,7 +30442,7 @@
         <v>29</v>
       </c>
       <c r="S38" s="9" t="s">
-        <v>9163</v>
+        <v>9162</v>
       </c>
       <c r="T38" s="9" t="s">
         <v>9160</v>
@@ -30503,7 +30505,7 @@
         <v>1060</v>
       </c>
       <c r="S39" s="9" t="s">
-        <v>9164</v>
+        <v>9163</v>
       </c>
       <c r="T39" s="9" t="s">
         <v>9160</v>
@@ -30566,7 +30568,7 @@
         <v>1283</v>
       </c>
       <c r="S40" s="9" t="s">
-        <v>9163</v>
+        <v>9162</v>
       </c>
       <c r="T40" s="9" t="s">
         <v>9160</v>
@@ -30629,7 +30631,7 @@
         <v>435</v>
       </c>
       <c r="S41" s="9" t="s">
-        <v>9162</v>
+        <v>9161</v>
       </c>
       <c r="T41" s="9" t="s">
         <v>9160</v>
@@ -30692,7 +30694,7 @@
         <v>599</v>
       </c>
       <c r="S42" s="9" t="s">
-        <v>9165</v>
+        <v>9164</v>
       </c>
       <c r="T42" s="9" t="s">
         <v>9160</v>
@@ -30755,7 +30757,7 @@
         <v>182</v>
       </c>
       <c r="S43" s="9" t="s">
-        <v>9163</v>
+        <v>9162</v>
       </c>
       <c r="T43" s="9" t="s">
         <v>9160</v>
@@ -30818,7 +30820,7 @@
         <v>539</v>
       </c>
       <c r="S44" s="9" t="s">
-        <v>9162</v>
+        <v>9161</v>
       </c>
       <c r="T44" s="9" t="s">
         <v>9160</v>
@@ -30881,7 +30883,7 @@
         <v>134</v>
       </c>
       <c r="S45" s="9" t="s">
-        <v>9167</v>
+        <v>9166</v>
       </c>
       <c r="T45" s="9" t="s">
         <v>9160</v>
@@ -30944,7 +30946,7 @@
         <v>577</v>
       </c>
       <c r="S46" s="9" t="s">
-        <v>9164</v>
+        <v>9163</v>
       </c>
       <c r="T46" s="9" t="s">
         <v>9160</v>
@@ -31007,7 +31009,7 @@
         <v>332</v>
       </c>
       <c r="S47" s="9" t="s">
-        <v>9165</v>
+        <v>9164</v>
       </c>
       <c r="T47" s="9" t="s">
         <v>9160</v>
@@ -31070,7 +31072,7 @@
         <v>1422</v>
       </c>
       <c r="S48" s="9" t="s">
-        <v>9167</v>
+        <v>9166</v>
       </c>
       <c r="T48" s="9" t="s">
         <v>9160</v>
@@ -31133,7 +31135,7 @@
         <v>1101</v>
       </c>
       <c r="S49" s="9" t="s">
-        <v>9166</v>
+        <v>9165</v>
       </c>
       <c r="T49" s="9" t="s">
         <v>9160</v>
@@ -31196,7 +31198,7 @@
         <v>594</v>
       </c>
       <c r="S50" s="9" t="s">
-        <v>9166</v>
+        <v>9165</v>
       </c>
       <c r="T50" s="9" t="s">
         <v>9160</v>
@@ -31259,7 +31261,7 @@
         <v>672</v>
       </c>
       <c r="S51" s="9" t="s">
-        <v>9164</v>
+        <v>9163</v>
       </c>
       <c r="T51" s="9" t="s">
         <v>9160</v>
@@ -31322,7 +31324,7 @@
         <v>807</v>
       </c>
       <c r="S52" s="9" t="s">
-        <v>9163</v>
+        <v>9162</v>
       </c>
       <c r="T52" s="9" t="s">
         <v>9160</v>
@@ -31385,7 +31387,7 @@
         <v>1397</v>
       </c>
       <c r="S53" s="9" t="s">
-        <v>9162</v>
+        <v>9161</v>
       </c>
       <c r="T53" s="9" t="s">
         <v>9160</v>
@@ -31448,7 +31450,7 @@
         <v>611</v>
       </c>
       <c r="S54" s="9" t="s">
-        <v>9167</v>
+        <v>9166</v>
       </c>
       <c r="T54" s="9" t="s">
         <v>9160</v>
@@ -31511,7 +31513,7 @@
         <v>183</v>
       </c>
       <c r="S55" s="9" t="s">
-        <v>9166</v>
+        <v>9165</v>
       </c>
       <c r="T55" s="9" t="s">
         <v>9160</v>
@@ -31574,7 +31576,7 @@
         <v>152</v>
       </c>
       <c r="S56" s="9" t="s">
-        <v>9162</v>
+        <v>9161</v>
       </c>
       <c r="T56" s="9" t="s">
         <v>9160</v>
@@ -31637,7 +31639,7 @@
         <v>2092</v>
       </c>
       <c r="S57" s="9" t="s">
-        <v>9164</v>
+        <v>9163</v>
       </c>
       <c r="T57" s="9" t="s">
         <v>9160</v>
@@ -31700,7 +31702,7 @@
         <v>311</v>
       </c>
       <c r="S58" s="9" t="s">
-        <v>9166</v>
+        <v>9165</v>
       </c>
       <c r="T58" s="9" t="s">
         <v>9160</v>
@@ -31763,7 +31765,7 @@
         <v>976</v>
       </c>
       <c r="S59" s="9" t="s">
-        <v>9166</v>
+        <v>9165</v>
       </c>
       <c r="T59" s="9" t="s">
         <v>9160</v>
@@ -31826,7 +31828,7 @@
         <v>21</v>
       </c>
       <c r="S60" s="9" t="s">
-        <v>9166</v>
+        <v>9165</v>
       </c>
       <c r="T60" s="9" t="s">
         <v>9160</v>
@@ -31889,7 +31891,7 @@
         <v>837</v>
       </c>
       <c r="S61" s="9" t="s">
-        <v>9162</v>
+        <v>9161</v>
       </c>
       <c r="T61" s="9" t="s">
         <v>9160</v>
@@ -31952,7 +31954,7 @@
         <v>694</v>
       </c>
       <c r="S62" s="9" t="s">
-        <v>9162</v>
+        <v>9161</v>
       </c>
       <c r="T62" s="9" t="s">
         <v>9160</v>
@@ -32015,7 +32017,7 @@
         <v>1144</v>
       </c>
       <c r="S63" s="9" t="s">
-        <v>9164</v>
+        <v>9163</v>
       </c>
       <c r="T63" s="9" t="s">
         <v>9160</v>
@@ -32078,7 +32080,7 @@
         <v>695</v>
       </c>
       <c r="S64" s="9" t="s">
-        <v>9162</v>
+        <v>9161</v>
       </c>
       <c r="T64" s="9" t="s">
         <v>9160</v>
@@ -32141,7 +32143,7 @@
         <v>619</v>
       </c>
       <c r="S65" s="9" t="s">
-        <v>9165</v>
+        <v>9164</v>
       </c>
       <c r="T65" s="9" t="s">
         <v>9160</v>
@@ -32204,7 +32206,7 @@
         <v>409</v>
       </c>
       <c r="S66" s="9" t="s">
-        <v>9166</v>
+        <v>9165</v>
       </c>
       <c r="T66" s="9" t="s">
         <v>9160</v>
@@ -32267,7 +32269,7 @@
         <v>553</v>
       </c>
       <c r="S67" s="9" t="s">
-        <v>9162</v>
+        <v>9161</v>
       </c>
       <c r="T67" s="9" t="s">
         <v>9160</v>
@@ -32330,7 +32332,7 @@
         <v>274</v>
       </c>
       <c r="S68" s="9" t="s">
-        <v>9162</v>
+        <v>9161</v>
       </c>
       <c r="T68" s="9" t="s">
         <v>9160</v>
@@ -32393,7 +32395,7 @@
         <v>214</v>
       </c>
       <c r="S69" s="9" t="s">
-        <v>9165</v>
+        <v>9164</v>
       </c>
       <c r="T69" s="9" t="s">
         <v>9160</v>
@@ -32456,7 +32458,7 @@
         <v>455</v>
       </c>
       <c r="S70" s="9" t="s">
-        <v>9164</v>
+        <v>9163</v>
       </c>
       <c r="T70" s="9" t="s">
         <v>9160</v>
@@ -32519,7 +32521,7 @@
         <v>483</v>
       </c>
       <c r="S71" s="9" t="s">
-        <v>9165</v>
+        <v>9164</v>
       </c>
       <c r="T71" s="9" t="s">
         <v>9160</v>
@@ -32582,7 +32584,7 @@
         <v>756</v>
       </c>
       <c r="S72" s="9" t="s">
-        <v>9162</v>
+        <v>9161</v>
       </c>
       <c r="T72" s="9" t="s">
         <v>9160</v>
@@ -32645,7 +32647,7 @@
         <v>71</v>
       </c>
       <c r="S73" s="9" t="s">
-        <v>9165</v>
+        <v>9164</v>
       </c>
       <c r="T73" s="9" t="s">
         <v>9160</v>
@@ -32708,7 +32710,7 @@
         <v>513</v>
       </c>
       <c r="S74" s="9" t="s">
-        <v>9166</v>
+        <v>9165</v>
       </c>
       <c r="T74" s="9" t="s">
         <v>9160</v>
@@ -32771,7 +32773,7 @@
         <v>928</v>
       </c>
       <c r="S75" s="9" t="s">
-        <v>9164</v>
+        <v>9163</v>
       </c>
       <c r="T75" s="9" t="s">
         <v>9160</v>
@@ -32834,7 +32836,7 @@
         <v>1196</v>
       </c>
       <c r="S76" s="9" t="s">
-        <v>9163</v>
+        <v>9162</v>
       </c>
       <c r="T76" s="9" t="s">
         <v>9160</v>
@@ -32897,7 +32899,7 @@
         <v>981</v>
       </c>
       <c r="S77" s="9" t="s">
-        <v>9162</v>
+        <v>9161</v>
       </c>
       <c r="T77" s="9" t="s">
         <v>9160</v>
@@ -32960,7 +32962,7 @@
         <v>602</v>
       </c>
       <c r="S78" s="9" t="s">
-        <v>9164</v>
+        <v>9163</v>
       </c>
       <c r="T78" s="9" t="s">
         <v>9160</v>
@@ -33023,7 +33025,7 @@
         <v>117</v>
       </c>
       <c r="S79" s="9" t="s">
-        <v>9166</v>
+        <v>9165</v>
       </c>
       <c r="T79" s="9" t="s">
         <v>9160</v>
@@ -33086,7 +33088,7 @@
         <v>279</v>
       </c>
       <c r="S80" s="9" t="s">
-        <v>9166</v>
+        <v>9165</v>
       </c>
       <c r="T80" s="9" t="s">
         <v>9160</v>
@@ -33149,7 +33151,7 @@
         <v>807</v>
       </c>
       <c r="S81" s="9" t="s">
-        <v>9162</v>
+        <v>9161</v>
       </c>
       <c r="T81" s="9" t="s">
         <v>9160</v>
@@ -33212,7 +33214,7 @@
         <v>643</v>
       </c>
       <c r="S82" s="9" t="s">
-        <v>9162</v>
+        <v>9161</v>
       </c>
       <c r="T82" s="9" t="s">
         <v>9160</v>
@@ -33275,7 +33277,7 @@
         <v>746</v>
       </c>
       <c r="S83" s="9" t="s">
-        <v>9167</v>
+        <v>9166</v>
       </c>
       <c r="T83" s="9" t="s">
         <v>9160</v>
@@ -33338,7 +33340,7 @@
         <v>303</v>
       </c>
       <c r="S84" s="9" t="s">
-        <v>9164</v>
+        <v>9163</v>
       </c>
       <c r="T84" s="9" t="s">
         <v>9160</v>
@@ -33401,7 +33403,7 @@
         <v>631</v>
       </c>
       <c r="S85" s="9" t="s">
-        <v>9164</v>
+        <v>9163</v>
       </c>
       <c r="T85" s="9" t="s">
         <v>9160</v>
@@ -33464,7 +33466,7 @@
         <v>419</v>
       </c>
       <c r="S86" s="9" t="s">
-        <v>9165</v>
+        <v>9164</v>
       </c>
       <c r="T86" s="9" t="s">
         <v>9160</v>
@@ -33527,7 +33529,7 @@
         <v>360</v>
       </c>
       <c r="S87" s="9" t="s">
-        <v>9163</v>
+        <v>9162</v>
       </c>
       <c r="T87" s="9" t="s">
         <v>9160</v>
@@ -33590,7 +33592,7 @@
         <v>1122</v>
       </c>
       <c r="S88" s="9" t="s">
-        <v>9167</v>
+        <v>9166</v>
       </c>
       <c r="T88" s="9" t="s">
         <v>9160</v>
@@ -33653,7 +33655,7 @@
         <v>142</v>
       </c>
       <c r="S89" s="9" t="s">
-        <v>9166</v>
+        <v>9165</v>
       </c>
       <c r="T89" s="9" t="s">
         <v>9160</v>
@@ -33716,7 +33718,7 @@
         <v>776</v>
       </c>
       <c r="S90" s="9" t="s">
-        <v>9162</v>
+        <v>9161</v>
       </c>
       <c r="T90" s="9" t="s">
         <v>9160</v>
@@ -33779,7 +33781,7 @@
         <v>231</v>
       </c>
       <c r="S91" s="9" t="s">
-        <v>9166</v>
+        <v>9165</v>
       </c>
       <c r="T91" s="9" t="s">
         <v>9160</v>
@@ -33842,7 +33844,7 @@
         <v>969</v>
       </c>
       <c r="S92" s="9" t="s">
-        <v>9163</v>
+        <v>9162</v>
       </c>
       <c r="T92" s="9" t="s">
         <v>9160</v>
@@ -33905,7 +33907,7 @@
         <v>1008</v>
       </c>
       <c r="S93" s="9" t="s">
-        <v>9164</v>
+        <v>9163</v>
       </c>
       <c r="T93" s="9" t="s">
         <v>9160</v>
@@ -33968,7 +33970,7 @@
         <v>232</v>
       </c>
       <c r="S94" s="9" t="s">
-        <v>9165</v>
+        <v>9164</v>
       </c>
       <c r="T94" s="9" t="s">
         <v>9160</v>
@@ -34031,7 +34033,7 @@
         <v>577</v>
       </c>
       <c r="S95" s="9" t="s">
-        <v>9165</v>
+        <v>9164</v>
       </c>
       <c r="T95" s="9" t="s">
         <v>9160</v>
@@ -34094,7 +34096,7 @@
         <v>717</v>
       </c>
       <c r="S96" s="9" t="s">
-        <v>9164</v>
+        <v>9163</v>
       </c>
       <c r="T96" s="9" t="s">
         <v>9160</v>
@@ -34157,7 +34159,7 @@
         <v>703</v>
       </c>
       <c r="S97" s="9" t="s">
-        <v>9165</v>
+        <v>9164</v>
       </c>
       <c r="T97" s="9" t="s">
         <v>9160</v>
@@ -34220,7 +34222,7 @@
         <v>595</v>
       </c>
       <c r="S98" s="9" t="s">
-        <v>9167</v>
+        <v>9166</v>
       </c>
       <c r="T98" s="9" t="s">
         <v>9160</v>
@@ -34283,7 +34285,7 @@
         <v>1094</v>
       </c>
       <c r="S99" s="9" t="s">
-        <v>9166</v>
+        <v>9165</v>
       </c>
       <c r="T99" s="9" t="s">
         <v>9160</v>
@@ -34346,7 +34348,7 @@
         <v>616</v>
       </c>
       <c r="S100" s="9" t="s">
-        <v>9164</v>
+        <v>9163</v>
       </c>
       <c r="T100" s="9" t="s">
         <v>9160</v>
@@ -34409,7 +34411,7 @@
         <v>341</v>
       </c>
       <c r="S101" s="9" t="s">
-        <v>9162</v>
+        <v>9161</v>
       </c>
       <c r="T101" s="9" t="s">
         <v>9160</v>
@@ -34472,7 +34474,7 @@
         <v>762</v>
       </c>
       <c r="S102" s="9" t="s">
-        <v>9162</v>
+        <v>9161</v>
       </c>
       <c r="T102" s="9" t="s">
         <v>9160</v>
@@ -34535,7 +34537,7 @@
         <v>1056</v>
       </c>
       <c r="S103" s="9" t="s">
-        <v>9163</v>
+        <v>9162</v>
       </c>
       <c r="T103" s="9" t="s">
         <v>9160</v>
@@ -34598,7 +34600,7 @@
         <v>42</v>
       </c>
       <c r="S104" s="9" t="s">
-        <v>9167</v>
+        <v>9166</v>
       </c>
       <c r="T104" s="9" t="s">
         <v>9160</v>
@@ -34661,7 +34663,7 @@
         <v>1108</v>
       </c>
       <c r="S105" s="9" t="s">
-        <v>9165</v>
+        <v>9164</v>
       </c>
       <c r="T105" s="9" t="s">
         <v>9160</v>
@@ -34724,7 +34726,7 @@
         <v>725</v>
       </c>
       <c r="S106" s="9" t="s">
-        <v>9166</v>
+        <v>9165</v>
       </c>
       <c r="T106" s="9" t="s">
         <v>9160</v>
@@ -34787,7 +34789,7 @@
         <v>699</v>
       </c>
       <c r="S107" s="9" t="s">
-        <v>9165</v>
+        <v>9164</v>
       </c>
       <c r="T107" s="9" t="s">
         <v>9160</v>
@@ -34850,7 +34852,7 @@
         <v>1125</v>
       </c>
       <c r="S108" s="9" t="s">
-        <v>9164</v>
+        <v>9163</v>
       </c>
       <c r="T108" s="9" t="s">
         <v>9160</v>
@@ -34913,7 +34915,7 @@
         <v>180</v>
       </c>
       <c r="S109" s="9" t="s">
-        <v>9163</v>
+        <v>9162</v>
       </c>
       <c r="T109" s="9" t="s">
         <v>9160</v>
@@ -34976,7 +34978,7 @@
         <v>542</v>
       </c>
       <c r="S110" s="9" t="s">
-        <v>9163</v>
+        <v>9162</v>
       </c>
       <c r="T110" s="9" t="s">
         <v>9160</v>
@@ -35039,7 +35041,7 @@
         <v>58</v>
       </c>
       <c r="S111" s="9" t="s">
-        <v>9164</v>
+        <v>9163</v>
       </c>
       <c r="T111" s="9" t="s">
         <v>9160</v>
@@ -35102,7 +35104,7 @@
         <v>70</v>
       </c>
       <c r="S112" s="9" t="s">
-        <v>9164</v>
+        <v>9163</v>
       </c>
       <c r="T112" s="9" t="s">
         <v>9160</v>
@@ -35165,7 +35167,7 @@
         <v>848</v>
       </c>
       <c r="S113" s="9" t="s">
-        <v>9166</v>
+        <v>9165</v>
       </c>
       <c r="T113" s="9" t="s">
         <v>9160</v>
@@ -35228,7 +35230,7 @@
         <v>47</v>
       </c>
       <c r="S114" s="9" t="s">
-        <v>9162</v>
+        <v>9161</v>
       </c>
       <c r="T114" s="9" t="s">
         <v>9160</v>
@@ -35291,7 +35293,7 @@
         <v>467</v>
       </c>
       <c r="S115" s="9" t="s">
-        <v>9166</v>
+        <v>9165</v>
       </c>
       <c r="T115" s="9" t="s">
         <v>9160</v>
@@ -35354,7 +35356,7 @@
         <v>206</v>
       </c>
       <c r="S116" s="9" t="s">
-        <v>9163</v>
+        <v>9162</v>
       </c>
       <c r="T116" s="9" t="s">
         <v>9160</v>
@@ -35417,7 +35419,7 @@
         <v>767</v>
       </c>
       <c r="S117" s="9" t="s">
-        <v>9166</v>
+        <v>9165</v>
       </c>
       <c r="T117" s="9" t="s">
         <v>9160</v>
@@ -35480,7 +35482,7 @@
         <v>1039</v>
       </c>
       <c r="S118" s="9" t="s">
-        <v>9165</v>
+        <v>9164</v>
       </c>
       <c r="T118" s="9" t="s">
         <v>9160</v>
@@ -35543,7 +35545,7 @@
         <v>593</v>
       </c>
       <c r="S119" s="9" t="s">
-        <v>9164</v>
+        <v>9163</v>
       </c>
       <c r="T119" s="9" t="s">
         <v>9160</v>
@@ -35606,7 +35608,7 @@
         <v>440</v>
       </c>
       <c r="S120" s="9" t="s">
-        <v>9164</v>
+        <v>9163</v>
       </c>
       <c r="T120" s="9" t="s">
         <v>9160</v>
@@ -35669,7 +35671,7 @@
         <v>1283</v>
       </c>
       <c r="S121" s="9" t="s">
-        <v>9163</v>
+        <v>9162</v>
       </c>
       <c r="T121" s="9" t="s">
         <v>9160</v>
@@ -35732,7 +35734,7 @@
         <v>822</v>
       </c>
       <c r="S122" s="9" t="s">
-        <v>9165</v>
+        <v>9164</v>
       </c>
       <c r="T122" s="9" t="s">
         <v>9160</v>
@@ -35795,7 +35797,7 @@
         <v>724</v>
       </c>
       <c r="S123" s="9" t="s">
-        <v>9164</v>
+        <v>9163</v>
       </c>
       <c r="T123" s="9" t="s">
         <v>9160</v>
@@ -35858,7 +35860,7 @@
         <v>616</v>
       </c>
       <c r="S124" s="9" t="s">
-        <v>9164</v>
+        <v>9163</v>
       </c>
       <c r="T124" s="9" t="s">
         <v>9160</v>
@@ -35921,7 +35923,7 @@
         <v>612</v>
       </c>
       <c r="S125" s="9" t="s">
-        <v>9165</v>
+        <v>9164</v>
       </c>
       <c r="T125" s="9" t="s">
         <v>9160</v>
@@ -35984,7 +35986,7 @@
         <v>1429</v>
       </c>
       <c r="S126" s="9" t="s">
-        <v>9167</v>
+        <v>9166</v>
       </c>
       <c r="T126" s="9" t="s">
         <v>9160</v>
@@ -36047,7 +36049,7 @@
         <v>964</v>
       </c>
       <c r="S127" s="9" t="s">
-        <v>9162</v>
+        <v>9161</v>
       </c>
       <c r="T127" s="9" t="s">
         <v>9160</v>
@@ -36110,7 +36112,7 @@
         <v>328</v>
       </c>
       <c r="S128" s="9" t="s">
-        <v>9164</v>
+        <v>9163</v>
       </c>
       <c r="T128" s="9" t="s">
         <v>9160</v>
@@ -36173,7 +36175,7 @@
         <v>864</v>
       </c>
       <c r="S129" s="9" t="s">
-        <v>9164</v>
+        <v>9163</v>
       </c>
       <c r="T129" s="9" t="s">
         <v>9160</v>
@@ -36236,7 +36238,7 @@
         <v>1200</v>
       </c>
       <c r="S130" s="9" t="s">
-        <v>9167</v>
+        <v>9166</v>
       </c>
       <c r="T130" s="9" t="s">
         <v>9160</v>
@@ -36299,7 +36301,7 @@
         <v>456</v>
       </c>
       <c r="S131" s="9" t="s">
-        <v>9165</v>
+        <v>9164</v>
       </c>
       <c r="T131" s="9" t="s">
         <v>9160</v>
@@ -36362,7 +36364,7 @@
         <v>406</v>
       </c>
       <c r="S132" s="9" t="s">
-        <v>9167</v>
+        <v>9166</v>
       </c>
       <c r="T132" s="9" t="s">
         <v>9160</v>
@@ -36425,7 +36427,7 @@
         <v>122</v>
       </c>
       <c r="S133" s="9" t="s">
-        <v>9166</v>
+        <v>9165</v>
       </c>
       <c r="T133" s="9" t="s">
         <v>9160</v>
@@ -36488,7 +36490,7 @@
         <v>641</v>
       </c>
       <c r="S134" s="9" t="s">
-        <v>9166</v>
+        <v>9165</v>
       </c>
       <c r="T134" s="9" t="s">
         <v>9160</v>
@@ -36551,7 +36553,7 @@
         <v>918</v>
       </c>
       <c r="S135" s="9" t="s">
-        <v>9163</v>
+        <v>9162</v>
       </c>
       <c r="T135" s="9" t="s">
         <v>9160</v>
@@ -36614,7 +36616,7 @@
         <v>496</v>
       </c>
       <c r="S136" s="9" t="s">
-        <v>9165</v>
+        <v>9164</v>
       </c>
       <c r="T136" s="9" t="s">
         <v>9160</v>
@@ -36677,7 +36679,7 @@
         <v>85</v>
       </c>
       <c r="S137" s="9" t="s">
-        <v>9165</v>
+        <v>9164</v>
       </c>
       <c r="T137" s="9" t="s">
         <v>9160</v>
@@ -36740,7 +36742,7 @@
         <v>160</v>
       </c>
       <c r="S138" s="9" t="s">
-        <v>9164</v>
+        <v>9163</v>
       </c>
       <c r="T138" s="9" t="s">
         <v>9160</v>
@@ -36803,7 +36805,7 @@
         <v>311</v>
       </c>
       <c r="S139" s="9" t="s">
-        <v>9162</v>
+        <v>9161</v>
       </c>
       <c r="T139" s="9" t="s">
         <v>9160</v>
@@ -36866,7 +36868,7 @@
         <v>257</v>
       </c>
       <c r="S140" s="9" t="s">
-        <v>9164</v>
+        <v>9163</v>
       </c>
       <c r="T140" s="9" t="s">
         <v>9160</v>
@@ -36929,7 +36931,7 @@
         <v>681</v>
       </c>
       <c r="S141" s="9" t="s">
-        <v>9164</v>
+        <v>9163</v>
       </c>
       <c r="T141" s="9" t="s">
         <v>9160</v>
@@ -36992,7 +36994,7 @@
         <v>785</v>
       </c>
       <c r="S142" s="9" t="s">
-        <v>9166</v>
+        <v>9165</v>
       </c>
       <c r="T142" s="9" t="s">
         <v>9160</v>
@@ -37055,7 +37057,7 @@
         <v>977</v>
       </c>
       <c r="S143" s="9" t="s">
-        <v>9166</v>
+        <v>9165</v>
       </c>
       <c r="T143" s="9" t="s">
         <v>9160</v>
@@ -37118,7 +37120,7 @@
         <v>505</v>
       </c>
       <c r="S144" s="9" t="s">
-        <v>9163</v>
+        <v>9162</v>
       </c>
       <c r="T144" s="9" t="s">
         <v>9160</v>
@@ -37181,7 +37183,7 @@
         <v>1384</v>
       </c>
       <c r="S145" s="9" t="s">
-        <v>9167</v>
+        <v>9166</v>
       </c>
       <c r="T145" s="9" t="s">
         <v>9160</v>
@@ -37244,7 +37246,7 @@
         <v>920</v>
       </c>
       <c r="S146" s="9" t="s">
-        <v>9165</v>
+        <v>9164</v>
       </c>
       <c r="T146" s="9" t="s">
         <v>9160</v>
@@ -37307,7 +37309,7 @@
         <v>649</v>
       </c>
       <c r="S147" s="9" t="s">
-        <v>9164</v>
+        <v>9163</v>
       </c>
       <c r="T147" s="9" t="s">
         <v>9160</v>
@@ -37370,7 +37372,7 @@
         <v>662</v>
       </c>
       <c r="S148" s="9" t="s">
-        <v>9167</v>
+        <v>9166</v>
       </c>
       <c r="T148" s="9" t="s">
         <v>9160</v>
@@ -37433,7 +37435,7 @@
         <v>1021</v>
       </c>
       <c r="S149" s="9" t="s">
-        <v>9164</v>
+        <v>9163</v>
       </c>
       <c r="T149" s="9" t="s">
         <v>9160</v>
@@ -37496,7 +37498,7 @@
         <v>1975</v>
       </c>
       <c r="S150" s="9" t="s">
-        <v>9162</v>
+        <v>9161</v>
       </c>
       <c r="T150" s="9" t="s">
         <v>9160</v>
@@ -37559,7 +37561,7 @@
         <v>265</v>
       </c>
       <c r="S151" s="9" t="s">
-        <v>9164</v>
+        <v>9163</v>
       </c>
       <c r="T151" s="9" t="s">
         <v>9160</v>
@@ -37622,7 +37624,7 @@
         <v>305</v>
       </c>
       <c r="S152" s="9" t="s">
-        <v>9166</v>
+        <v>9165</v>
       </c>
       <c r="T152" s="9" t="s">
         <v>9160</v>
@@ -37685,7 +37687,7 @@
         <v>910</v>
       </c>
       <c r="S153" s="9" t="s">
-        <v>9162</v>
+        <v>9161</v>
       </c>
       <c r="T153" s="9" t="s">
         <v>9160</v>
@@ -37748,7 +37750,7 @@
         <v>31</v>
       </c>
       <c r="S154" s="9" t="s">
-        <v>9162</v>
+        <v>9161</v>
       </c>
       <c r="T154" s="9" t="s">
         <v>9160</v>
@@ -37811,7 +37813,7 @@
         <v>1084</v>
       </c>
       <c r="S155" s="9" t="s">
-        <v>9166</v>
+        <v>9165</v>
       </c>
       <c r="T155" s="9" t="s">
         <v>9160</v>
@@ -37874,7 +37876,7 @@
         <v>1347</v>
       </c>
       <c r="S156" s="9" t="s">
-        <v>9166</v>
+        <v>9165</v>
       </c>
       <c r="T156" s="9" t="s">
         <v>9160</v>
@@ -37937,7 +37939,7 @@
         <v>384</v>
       </c>
       <c r="S157" s="9" t="s">
-        <v>9163</v>
+        <v>9162</v>
       </c>
       <c r="T157" s="9" t="s">
         <v>9160</v>
@@ -38000,7 +38002,7 @@
         <v>162</v>
       </c>
       <c r="S158" s="9" t="s">
-        <v>9165</v>
+        <v>9164</v>
       </c>
       <c r="T158" s="9" t="s">
         <v>9160</v>
@@ -38063,7 +38065,7 @@
         <v>902</v>
       </c>
       <c r="S159" s="9" t="s">
-        <v>9166</v>
+        <v>9165</v>
       </c>
       <c r="T159" s="9" t="s">
         <v>9160</v>
@@ -38126,7 +38128,7 @@
         <v>812</v>
       </c>
       <c r="S160" s="9" t="s">
-        <v>9166</v>
+        <v>9165</v>
       </c>
       <c r="T160" s="9" t="s">
         <v>9160</v>
@@ -38189,7 +38191,7 @@
         <v>172</v>
       </c>
       <c r="S161" s="9" t="s">
-        <v>9166</v>
+        <v>9165</v>
       </c>
       <c r="T161" s="9" t="s">
         <v>9160</v>
@@ -38252,7 +38254,7 @@
         <v>1189</v>
       </c>
       <c r="S162" s="9" t="s">
-        <v>9165</v>
+        <v>9164</v>
       </c>
       <c r="T162" s="9" t="s">
         <v>9160</v>
@@ -38315,7 +38317,7 @@
         <v>717</v>
       </c>
       <c r="S163" s="9" t="s">
-        <v>9163</v>
+        <v>9162</v>
       </c>
       <c r="T163" s="9" t="s">
         <v>9160</v>
@@ -38378,7 +38380,7 @@
         <v>885</v>
       </c>
       <c r="S164" s="9" t="s">
-        <v>9165</v>
+        <v>9164</v>
       </c>
       <c r="T164" s="9" t="s">
         <v>9160</v>
@@ -38441,7 +38443,7 @@
         <v>156</v>
       </c>
       <c r="S165" s="9" t="s">
-        <v>9167</v>
+        <v>9166</v>
       </c>
       <c r="T165" s="9" t="s">
         <v>9160</v>
@@ -38504,7 +38506,7 @@
         <v>389</v>
       </c>
       <c r="S166" s="9" t="s">
-        <v>9163</v>
+        <v>9162</v>
       </c>
       <c r="T166" s="9" t="s">
         <v>9160</v>
@@ -38567,7 +38569,7 @@
         <v>1083</v>
       </c>
       <c r="S167" s="9" t="s">
-        <v>9164</v>
+        <v>9163</v>
       </c>
       <c r="T167" s="9" t="s">
         <v>9160</v>
@@ -38630,7 +38632,7 @@
         <v>1151</v>
       </c>
       <c r="S168" s="9" t="s">
-        <v>9167</v>
+        <v>9166</v>
       </c>
       <c r="T168" s="9" t="s">
         <v>9160</v>
@@ -38693,7 +38695,7 @@
         <v>462</v>
       </c>
       <c r="S169" s="9" t="s">
-        <v>9165</v>
+        <v>9164</v>
       </c>
       <c r="T169" s="9" t="s">
         <v>9160</v>
@@ -38756,7 +38758,7 @@
         <v>920</v>
       </c>
       <c r="S170" s="9" t="s">
-        <v>9167</v>
+        <v>9166</v>
       </c>
       <c r="T170" s="9" t="s">
         <v>9160</v>
@@ -38819,7 +38821,7 @@
         <v>324</v>
       </c>
       <c r="S171" s="9" t="s">
-        <v>9166</v>
+        <v>9165</v>
       </c>
       <c r="T171" s="9" t="s">
         <v>9160</v>
@@ -38882,7 +38884,7 @@
         <v>157</v>
       </c>
       <c r="S172" s="9" t="s">
-        <v>9162</v>
+        <v>9161</v>
       </c>
       <c r="T172" s="9" t="s">
         <v>9160</v>
@@ -38945,7 +38947,7 @@
         <v>84</v>
       </c>
       <c r="S173" s="9" t="s">
-        <v>9164</v>
+        <v>9163</v>
       </c>
       <c r="T173" s="9" t="s">
         <v>9160</v>
@@ -39008,7 +39010,7 @@
         <v>159</v>
       </c>
       <c r="S174" s="9" t="s">
-        <v>9162</v>
+        <v>9161</v>
       </c>
       <c r="T174" s="9" t="s">
         <v>9160</v>
@@ -39071,7 +39073,7 @@
         <v>80</v>
       </c>
       <c r="S175" s="9" t="s">
-        <v>9167</v>
+        <v>9166</v>
       </c>
       <c r="T175" s="9" t="s">
         <v>9160</v>
@@ -39134,7 +39136,7 @@
         <v>242</v>
       </c>
       <c r="S176" s="9" t="s">
-        <v>9167</v>
+        <v>9166</v>
       </c>
       <c r="T176" s="9" t="s">
         <v>9160</v>
@@ -39197,7 +39199,7 @@
         <v>1298</v>
       </c>
       <c r="S177" s="9" t="s">
-        <v>9165</v>
+        <v>9164</v>
       </c>
       <c r="T177" s="9" t="s">
         <v>9160</v>
@@ -39260,7 +39262,7 @@
         <v>349</v>
       </c>
       <c r="S178" s="9" t="s">
-        <v>9165</v>
+        <v>9164</v>
       </c>
       <c r="T178" s="9" t="s">
         <v>9160</v>
@@ -39323,7 +39325,7 @@
         <v>231</v>
       </c>
       <c r="S179" s="9" t="s">
-        <v>9165</v>
+        <v>9164</v>
       </c>
       <c r="T179" s="9" t="s">
         <v>9160</v>
@@ -39386,7 +39388,7 @@
         <v>491</v>
       </c>
       <c r="S180" s="9" t="s">
-        <v>9162</v>
+        <v>9161</v>
       </c>
       <c r="T180" s="9" t="s">
         <v>9160</v>
@@ -39449,7 +39451,7 @@
         <v>422</v>
       </c>
       <c r="S181" s="9" t="s">
-        <v>9164</v>
+        <v>9163</v>
       </c>
       <c r="T181" s="9" t="s">
         <v>9160</v>
@@ -39512,7 +39514,7 @@
         <v>491</v>
       </c>
       <c r="S182" s="9" t="s">
-        <v>9167</v>
+        <v>9166</v>
       </c>
       <c r="T182" s="9" t="s">
         <v>9160</v>
@@ -39575,7 +39577,7 @@
         <v>1267</v>
       </c>
       <c r="S183" s="9" t="s">
-        <v>9165</v>
+        <v>9164</v>
       </c>
       <c r="T183" s="9" t="s">
         <v>9160</v>
@@ -39638,7 +39640,7 @@
         <v>49</v>
       </c>
       <c r="S184" s="9" t="s">
-        <v>9165</v>
+        <v>9164</v>
       </c>
       <c r="T184" s="9" t="s">
         <v>9160</v>
@@ -39701,7 +39703,7 @@
         <v>949</v>
       </c>
       <c r="S185" s="9" t="s">
-        <v>9166</v>
+        <v>9165</v>
       </c>
       <c r="T185" s="9" t="s">
         <v>9160</v>
@@ -39764,7 +39766,7 @@
         <v>934</v>
       </c>
       <c r="S186" s="9" t="s">
-        <v>9163</v>
+        <v>9162</v>
       </c>
       <c r="T186" s="9" t="s">
         <v>9160</v>
@@ -39827,7 +39829,7 @@
         <v>821</v>
       </c>
       <c r="S187" s="9" t="s">
-        <v>9164</v>
+        <v>9163</v>
       </c>
       <c r="T187" s="9" t="s">
         <v>9160</v>
@@ -39890,7 +39892,7 @@
         <v>110</v>
       </c>
       <c r="S188" s="9" t="s">
-        <v>9162</v>
+        <v>9161</v>
       </c>
       <c r="T188" s="9" t="s">
         <v>9160</v>
@@ -39953,7 +39955,7 @@
         <v>136</v>
       </c>
       <c r="S189" s="9" t="s">
-        <v>9165</v>
+        <v>9164</v>
       </c>
       <c r="T189" s="9" t="s">
         <v>9160</v>
@@ -40016,7 +40018,7 @@
         <v>73</v>
       </c>
       <c r="S190" s="9" t="s">
-        <v>9164</v>
+        <v>9163</v>
       </c>
       <c r="T190" s="9" t="s">
         <v>9160</v>
@@ -40079,7 +40081,7 @@
         <v>821</v>
       </c>
       <c r="S191" s="9" t="s">
-        <v>9165</v>
+        <v>9164</v>
       </c>
       <c r="T191" s="9" t="s">
         <v>9160</v>
@@ -40142,7 +40144,7 @@
         <v>900</v>
       </c>
       <c r="S192" s="9" t="s">
-        <v>9162</v>
+        <v>9161</v>
       </c>
       <c r="T192" s="9" t="s">
         <v>9160</v>
@@ -40205,7 +40207,7 @@
         <v>60</v>
       </c>
       <c r="S193" s="9" t="s">
-        <v>9163</v>
+        <v>9162</v>
       </c>
       <c r="T193" s="9" t="s">
         <v>9160</v>
@@ -40268,7 +40270,7 @@
         <v>80</v>
       </c>
       <c r="S194" s="9" t="s">
-        <v>9163</v>
+        <v>9162</v>
       </c>
       <c r="T194" s="9" t="s">
         <v>9160</v>
@@ -40331,7 +40333,7 @@
         <v>1272</v>
       </c>
       <c r="S195" s="9" t="s">
-        <v>9163</v>
+        <v>9162</v>
       </c>
       <c r="T195" s="9" t="s">
         <v>9160</v>
@@ -40394,7 +40396,7 @@
         <v>1209</v>
       </c>
       <c r="S196" s="9" t="s">
-        <v>9167</v>
+        <v>9166</v>
       </c>
       <c r="T196" s="9" t="s">
         <v>9160</v>
@@ -40457,7 +40459,7 @@
         <v>712</v>
       </c>
       <c r="S197" s="9" t="s">
-        <v>9163</v>
+        <v>9162</v>
       </c>
       <c r="T197" s="9" t="s">
         <v>9160</v>
@@ -40520,7 +40522,7 @@
         <v>397</v>
       </c>
       <c r="S198" s="9" t="s">
-        <v>9164</v>
+        <v>9163</v>
       </c>
       <c r="T198" s="9" t="s">
         <v>9160</v>
@@ -40583,7 +40585,7 @@
         <v>1329</v>
       </c>
       <c r="S199" s="9" t="s">
-        <v>9166</v>
+        <v>9165</v>
       </c>
       <c r="T199" s="9" t="s">
         <v>9160</v>
@@ -40646,7 +40648,7 @@
         <v>293</v>
       </c>
       <c r="S200" s="9" t="s">
-        <v>9163</v>
+        <v>9162</v>
       </c>
       <c r="T200" s="9" t="s">
         <v>9160</v>
@@ -40709,7 +40711,7 @@
         <v>191</v>
       </c>
       <c r="S201" s="9" t="s">
-        <v>9166</v>
+        <v>9165</v>
       </c>
       <c r="T201" s="9" t="s">
         <v>9160</v>
@@ -40772,7 +40774,7 @@
         <v>1008</v>
       </c>
       <c r="S202" s="9" t="s">
-        <v>9165</v>
+        <v>9164</v>
       </c>
       <c r="T202" s="9" t="s">
         <v>9160</v>
@@ -40835,7 +40837,7 @@
         <v>808</v>
       </c>
       <c r="S203" s="9" t="s">
-        <v>9165</v>
+        <v>9164</v>
       </c>
       <c r="T203" s="9" t="s">
         <v>9160</v>
@@ -40898,7 +40900,7 @@
         <v>900</v>
       </c>
       <c r="S204" s="9" t="s">
-        <v>9162</v>
+        <v>9161</v>
       </c>
       <c r="T204" s="9" t="s">
         <v>9160</v>
@@ -40961,7 +40963,7 @@
         <v>168</v>
       </c>
       <c r="S205" s="9" t="s">
-        <v>9166</v>
+        <v>9165</v>
       </c>
       <c r="T205" s="9" t="s">
         <v>9160</v>
@@ -41024,7 +41026,7 @@
         <v>394</v>
       </c>
       <c r="S206" s="9" t="s">
-        <v>9166</v>
+        <v>9165</v>
       </c>
       <c r="T206" s="9" t="s">
         <v>9160</v>
@@ -41087,7 +41089,7 @@
         <v>969</v>
       </c>
       <c r="S207" s="9" t="s">
-        <v>9167</v>
+        <v>9166</v>
       </c>
       <c r="T207" s="9" t="s">
         <v>9160</v>
@@ -41150,7 +41152,7 @@
         <v>954</v>
       </c>
       <c r="S208" s="9" t="s">
-        <v>9166</v>
+        <v>9165</v>
       </c>
       <c r="T208" s="9" t="s">
         <v>9160</v>
@@ -41213,7 +41215,7 @@
         <v>1131</v>
       </c>
       <c r="S209" s="9" t="s">
-        <v>9167</v>
+        <v>9166</v>
       </c>
       <c r="T209" s="9" t="s">
         <v>9160</v>
@@ -41276,7 +41278,7 @@
         <v>742</v>
       </c>
       <c r="S210" s="9" t="s">
-        <v>9164</v>
+        <v>9163</v>
       </c>
       <c r="T210" s="9" t="s">
         <v>9160</v>
@@ -41339,7 +41341,7 @@
         <v>64</v>
       </c>
       <c r="S211" s="9" t="s">
-        <v>9165</v>
+        <v>9164</v>
       </c>
       <c r="T211" s="9" t="s">
         <v>9160</v>
@@ -41402,7 +41404,7 @@
         <v>1021</v>
       </c>
       <c r="S212" s="9" t="s">
-        <v>9164</v>
+        <v>9163</v>
       </c>
       <c r="T212" s="9" t="s">
         <v>9160</v>
@@ -41465,7 +41467,7 @@
         <v>646</v>
       </c>
       <c r="S213" s="9" t="s">
-        <v>9165</v>
+        <v>9164</v>
       </c>
       <c r="T213" s="9" t="s">
         <v>9160</v>
@@ -41528,7 +41530,7 @@
         <v>202</v>
       </c>
       <c r="S214" s="9" t="s">
-        <v>9163</v>
+        <v>9162</v>
       </c>
       <c r="T214" s="9" t="s">
         <v>9160</v>
@@ -41591,7 +41593,7 @@
         <v>599</v>
       </c>
       <c r="S215" s="9" t="s">
-        <v>9167</v>
+        <v>9166</v>
       </c>
       <c r="T215" s="9" t="s">
         <v>9160</v>
@@ -41654,7 +41656,7 @@
         <v>401</v>
       </c>
       <c r="S216" s="9" t="s">
-        <v>9166</v>
+        <v>9165</v>
       </c>
       <c r="T216" s="9" t="s">
         <v>9160</v>
@@ -41717,7 +41719,7 @@
         <v>630</v>
       </c>
       <c r="S217" s="9" t="s">
-        <v>9164</v>
+        <v>9163</v>
       </c>
       <c r="T217" s="9" t="s">
         <v>9160</v>
@@ -41780,7 +41782,7 @@
         <v>760</v>
       </c>
       <c r="S218" s="9" t="s">
-        <v>9162</v>
+        <v>9161</v>
       </c>
       <c r="T218" s="9" t="s">
         <v>9160</v>
@@ -41843,7 +41845,7 @@
         <v>611</v>
       </c>
       <c r="S219" s="9" t="s">
-        <v>9162</v>
+        <v>9161</v>
       </c>
       <c r="T219" s="9" t="s">
         <v>9160</v>
@@ -41906,7 +41908,7 @@
         <v>491</v>
       </c>
       <c r="S220" s="9" t="s">
-        <v>9167</v>
+        <v>9166</v>
       </c>
       <c r="T220" s="9" t="s">
         <v>9160</v>
@@ -41969,7 +41971,7 @@
         <v>381</v>
       </c>
       <c r="S221" s="9" t="s">
-        <v>9166</v>
+        <v>9165</v>
       </c>
       <c r="T221" s="9" t="s">
         <v>9160</v>
@@ -42032,7 +42034,7 @@
         <v>525</v>
       </c>
       <c r="S222" s="9" t="s">
-        <v>9166</v>
+        <v>9165</v>
       </c>
       <c r="T222" s="9" t="s">
         <v>9160</v>
@@ -42095,7 +42097,7 @@
         <v>1423</v>
       </c>
       <c r="S223" s="9" t="s">
-        <v>9165</v>
+        <v>9164</v>
       </c>
       <c r="T223" s="9" t="s">
         <v>9160</v>
@@ -42158,7 +42160,7 @@
         <v>64</v>
       </c>
       <c r="S224" s="9" t="s">
-        <v>9166</v>
+        <v>9165</v>
       </c>
       <c r="T224" s="9" t="s">
         <v>9160</v>
@@ -42221,7 +42223,7 @@
         <v>319</v>
       </c>
       <c r="S225" s="9" t="s">
-        <v>9167</v>
+        <v>9166</v>
       </c>
       <c r="T225" s="9" t="s">
         <v>9160</v>
@@ -42284,7 +42286,7 @@
         <v>81</v>
       </c>
       <c r="S226" s="9" t="s">
-        <v>9162</v>
+        <v>9161</v>
       </c>
       <c r="T226" s="9" t="s">
         <v>9160</v>
@@ -42347,7 +42349,7 @@
         <v>544</v>
       </c>
       <c r="S227" s="9" t="s">
-        <v>9164</v>
+        <v>9163</v>
       </c>
       <c r="T227" s="9" t="s">
         <v>9160</v>
@@ -42410,7 +42412,7 @@
         <v>296</v>
       </c>
       <c r="S228" s="9" t="s">
-        <v>9164</v>
+        <v>9163</v>
       </c>
       <c r="T228" s="9" t="s">
         <v>9160</v>
@@ -42473,7 +42475,7 @@
         <v>1430</v>
       </c>
       <c r="S229" s="9" t="s">
-        <v>9165</v>
+        <v>9164</v>
       </c>
       <c r="T229" s="9" t="s">
         <v>9160</v>
@@ -42536,7 +42538,7 @@
         <v>1046</v>
       </c>
       <c r="S230" s="9" t="s">
-        <v>9164</v>
+        <v>9163</v>
       </c>
       <c r="T230" s="9" t="s">
         <v>9160</v>
@@ -42599,7 +42601,7 @@
         <v>550</v>
       </c>
       <c r="S231" s="9" t="s">
-        <v>9162</v>
+        <v>9161</v>
       </c>
       <c r="T231" s="9" t="s">
         <v>9160</v>
@@ -42662,7 +42664,7 @@
         <v>1151</v>
       </c>
       <c r="S232" s="9" t="s">
-        <v>9162</v>
+        <v>9161</v>
       </c>
       <c r="T232" s="9" t="s">
         <v>9160</v>
@@ -42725,7 +42727,7 @@
         <v>624</v>
       </c>
       <c r="S233" s="9" t="s">
-        <v>9162</v>
+        <v>9161</v>
       </c>
       <c r="T233" s="9" t="s">
         <v>9160</v>
@@ -42788,7 +42790,7 @@
         <v>84</v>
       </c>
       <c r="S234" s="9" t="s">
-        <v>9163</v>
+        <v>9162</v>
       </c>
       <c r="T234" s="9" t="s">
         <v>9160</v>
@@ -42851,7 +42853,7 @@
         <v>429</v>
       </c>
       <c r="S235" s="9" t="s">
-        <v>9164</v>
+        <v>9163</v>
       </c>
       <c r="T235" s="9" t="s">
         <v>9160</v>
@@ -42914,7 +42916,7 @@
         <v>1121</v>
       </c>
       <c r="S236" s="9" t="s">
-        <v>9167</v>
+        <v>9166</v>
       </c>
       <c r="T236" s="9" t="s">
         <v>9160</v>
@@ -42977,7 +42979,7 @@
         <v>586</v>
       </c>
       <c r="S237" s="9" t="s">
-        <v>9166</v>
+        <v>9165</v>
       </c>
       <c r="T237" s="9" t="s">
         <v>9160</v>
@@ -43040,7 +43042,7 @@
         <v>455</v>
       </c>
       <c r="S238" s="9" t="s">
-        <v>9162</v>
+        <v>9161</v>
       </c>
       <c r="T238" s="9" t="s">
         <v>9160</v>
@@ -43103,7 +43105,7 @@
         <v>68</v>
       </c>
       <c r="S239" s="9" t="s">
-        <v>9162</v>
+        <v>9161</v>
       </c>
       <c r="T239" s="9" t="s">
         <v>9160</v>
@@ -43166,7 +43168,7 @@
         <v>657</v>
       </c>
       <c r="S240" s="9" t="s">
-        <v>9163</v>
+        <v>9162</v>
       </c>
       <c r="T240" s="9" t="s">
         <v>9160</v>
@@ -43229,7 +43231,7 @@
         <v>811</v>
       </c>
       <c r="S241" s="9" t="s">
-        <v>9163</v>
+        <v>9162</v>
       </c>
       <c r="T241" s="9" t="s">
         <v>9160</v>
@@ -43292,7 +43294,7 @@
         <v>661</v>
       </c>
       <c r="S242" s="9" t="s">
-        <v>9164</v>
+        <v>9163</v>
       </c>
       <c r="T242" s="9" t="s">
         <v>9160</v>
@@ -43355,7 +43357,7 @@
         <v>156</v>
       </c>
       <c r="S243" s="9" t="s">
-        <v>9166</v>
+        <v>9165</v>
       </c>
       <c r="T243" s="9" t="s">
         <v>9160</v>
@@ -43418,7 +43420,7 @@
         <v>1033</v>
       </c>
       <c r="S244" s="9" t="s">
-        <v>9167</v>
+        <v>9166</v>
       </c>
       <c r="T244" s="9" t="s">
         <v>9160</v>
@@ -43481,7 +43483,7 @@
         <v>1412</v>
       </c>
       <c r="S245" s="9" t="s">
-        <v>9163</v>
+        <v>9162</v>
       </c>
       <c r="T245" s="9" t="s">
         <v>9160</v>
@@ -43544,7 +43546,7 @@
         <v>1174</v>
       </c>
       <c r="S246" s="9" t="s">
-        <v>9163</v>
+        <v>9162</v>
       </c>
       <c r="T246" s="9" t="s">
         <v>9160</v>
@@ -43607,7 +43609,7 @@
         <v>767</v>
       </c>
       <c r="S247" s="9" t="s">
-        <v>9167</v>
+        <v>9166</v>
       </c>
       <c r="T247" s="9" t="s">
         <v>9160</v>
@@ -43670,7 +43672,7 @@
         <v>534</v>
       </c>
       <c r="S248" s="9" t="s">
-        <v>9164</v>
+        <v>9163</v>
       </c>
       <c r="T248" s="9" t="s">
         <v>9160</v>
@@ -43733,7 +43735,7 @@
         <v>953</v>
       </c>
       <c r="S249" s="9" t="s">
-        <v>9163</v>
+        <v>9162</v>
       </c>
       <c r="T249" s="9" t="s">
         <v>9160</v>
@@ -43796,7 +43798,7 @@
         <v>1189</v>
       </c>
       <c r="S250" s="9" t="s">
-        <v>9165</v>
+        <v>9164</v>
       </c>
       <c r="T250" s="9" t="s">
         <v>9160</v>
@@ -43859,7 +43861,7 @@
         <v>661</v>
       </c>
       <c r="S251" s="9" t="s">
-        <v>9166</v>
+        <v>9165</v>
       </c>
       <c r="T251" s="9" t="s">
         <v>9160</v>
@@ -43922,7 +43924,7 @@
         <v>674</v>
       </c>
       <c r="S252" s="9" t="s">
-        <v>9163</v>
+        <v>9162</v>
       </c>
       <c r="T252" s="9" t="s">
         <v>9160</v>
@@ -43985,7 +43987,7 @@
         <v>117</v>
       </c>
       <c r="S253" s="9" t="s">
-        <v>9163</v>
+        <v>9162</v>
       </c>
       <c r="T253" s="9" t="s">
         <v>9160</v>
@@ -44048,7 +44050,7 @@
         <v>187</v>
       </c>
       <c r="S254" s="9" t="s">
-        <v>9165</v>
+        <v>9164</v>
       </c>
       <c r="T254" s="9" t="s">
         <v>9160</v>
@@ -44111,7 +44113,7 @@
         <v>1260</v>
       </c>
       <c r="S255" s="9" t="s">
-        <v>9163</v>
+        <v>9162</v>
       </c>
       <c r="T255" s="9" t="s">
         <v>9160</v>
@@ -44174,7 +44176,7 @@
         <v>265</v>
       </c>
       <c r="S256" s="9" t="s">
-        <v>9163</v>
+        <v>9162</v>
       </c>
       <c r="T256" s="9" t="s">
         <v>9160</v>
@@ -44237,7 +44239,7 @@
         <v>1033</v>
       </c>
       <c r="S257" s="9" t="s">
-        <v>9165</v>
+        <v>9164</v>
       </c>
       <c r="T257" s="9" t="s">
         <v>9160</v>
@@ -44300,7 +44302,7 @@
         <v>213</v>
       </c>
       <c r="S258" s="9" t="s">
-        <v>9164</v>
+        <v>9163</v>
       </c>
       <c r="T258" s="9" t="s">
         <v>9160</v>
@@ -44363,7 +44365,7 @@
         <v>31</v>
       </c>
       <c r="S259" s="9" t="s">
-        <v>9166</v>
+        <v>9165</v>
       </c>
       <c r="T259" s="9" t="s">
         <v>9160</v>
@@ -44426,7 +44428,7 @@
         <v>574</v>
       </c>
       <c r="S260" s="9" t="s">
-        <v>9166</v>
+        <v>9165</v>
       </c>
       <c r="T260" s="9" t="s">
         <v>9160</v>
@@ -44489,7 +44491,7 @@
         <v>977</v>
       </c>
       <c r="S261" s="9" t="s">
-        <v>9165</v>
+        <v>9164</v>
       </c>
       <c r="T261" s="9" t="s">
         <v>9160</v>
@@ -44552,7 +44554,7 @@
         <v>152</v>
       </c>
       <c r="S262" s="9" t="s">
-        <v>9167</v>
+        <v>9166</v>
       </c>
       <c r="T262" s="9" t="s">
         <v>9160</v>
@@ -44615,7 +44617,7 @@
         <v>882</v>
       </c>
       <c r="S263" s="9" t="s">
-        <v>9166</v>
+        <v>9165</v>
       </c>
       <c r="T263" s="9" t="s">
         <v>9160</v>
@@ -44678,7 +44680,7 @@
         <v>447</v>
       </c>
       <c r="S264" s="9" t="s">
-        <v>9163</v>
+        <v>9162</v>
       </c>
       <c r="T264" s="9" t="s">
         <v>9160</v>
@@ -44741,7 +44743,7 @@
         <v>961</v>
       </c>
       <c r="S265" s="9" t="s">
-        <v>9165</v>
+        <v>9164</v>
       </c>
       <c r="T265" s="9" t="s">
         <v>9160</v>
@@ -44804,7 +44806,7 @@
         <v>449</v>
       </c>
       <c r="S266" s="9" t="s">
-        <v>9167</v>
+        <v>9166</v>
       </c>
       <c r="T266" s="9" t="s">
         <v>9160</v>
@@ -44867,7 +44869,7 @@
         <v>281</v>
       </c>
       <c r="S267" s="9" t="s">
-        <v>9163</v>
+        <v>9162</v>
       </c>
       <c r="T267" s="9" t="s">
         <v>9160</v>
@@ -44930,7 +44932,7 @@
         <v>35</v>
       </c>
       <c r="S268" s="9" t="s">
-        <v>9166</v>
+        <v>9165</v>
       </c>
       <c r="T268" s="9" t="s">
         <v>9160</v>
@@ -44993,7 +44995,7 @@
         <v>626</v>
       </c>
       <c r="S269" s="9" t="s">
-        <v>9162</v>
+        <v>9161</v>
       </c>
       <c r="T269" s="9" t="s">
         <v>9160</v>
@@ -45056,7 +45058,7 @@
         <v>762</v>
       </c>
       <c r="S270" s="9" t="s">
-        <v>9162</v>
+        <v>9161</v>
       </c>
       <c r="T270" s="9" t="s">
         <v>9160</v>
@@ -45119,7 +45121,7 @@
         <v>64</v>
       </c>
       <c r="S271" s="9" t="s">
-        <v>9162</v>
+        <v>9161</v>
       </c>
       <c r="T271" s="9" t="s">
         <v>9160</v>
@@ -45182,7 +45184,7 @@
         <v>2319</v>
       </c>
       <c r="S272" s="9" t="s">
-        <v>9164</v>
+        <v>9163</v>
       </c>
       <c r="T272" s="9" t="s">
         <v>9160</v>
@@ -45245,7 +45247,7 @@
         <v>1182</v>
       </c>
       <c r="S273" s="9" t="s">
-        <v>9162</v>
+        <v>9161</v>
       </c>
       <c r="T273" s="9" t="s">
         <v>9160</v>
@@ -45308,7 +45310,7 @@
         <v>265</v>
       </c>
       <c r="S274" s="9" t="s">
-        <v>9167</v>
+        <v>9166</v>
       </c>
       <c r="T274" s="9" t="s">
         <v>9160</v>
@@ -45371,7 +45373,7 @@
         <v>125</v>
       </c>
       <c r="S275" s="9" t="s">
-        <v>9163</v>
+        <v>9162</v>
       </c>
       <c r="T275" s="9" t="s">
         <v>9160</v>
@@ -45434,7 +45436,7 @@
         <v>26</v>
       </c>
       <c r="S276" s="9" t="s">
-        <v>9167</v>
+        <v>9166</v>
       </c>
       <c r="T276" s="9" t="s">
         <v>9160</v>
@@ -45497,7 +45499,7 @@
         <v>2319</v>
       </c>
       <c r="S277" s="9" t="s">
-        <v>9163</v>
+        <v>9162</v>
       </c>
       <c r="T277" s="9" t="s">
         <v>9160</v>
@@ -45560,7 +45562,7 @@
         <v>1097</v>
       </c>
       <c r="S278" s="9" t="s">
-        <v>9166</v>
+        <v>9165</v>
       </c>
       <c r="T278" s="9" t="s">
         <v>9160</v>
@@ -45623,7 +45625,7 @@
         <v>674</v>
       </c>
       <c r="S279" s="9" t="s">
-        <v>9166</v>
+        <v>9165</v>
       </c>
       <c r="T279" s="9" t="s">
         <v>9160</v>
@@ -45686,7 +45688,7 @@
         <v>456</v>
       </c>
       <c r="S280" s="9" t="s">
-        <v>9165</v>
+        <v>9164</v>
       </c>
       <c r="T280" s="9" t="s">
         <v>9160</v>
@@ -45749,7 +45751,7 @@
         <v>381</v>
       </c>
       <c r="S281" s="9" t="s">
-        <v>9167</v>
+        <v>9166</v>
       </c>
       <c r="T281" s="9" t="s">
         <v>9160</v>
@@ -45812,7 +45814,7 @@
         <v>470</v>
       </c>
       <c r="S282" s="9" t="s">
-        <v>9166</v>
+        <v>9165</v>
       </c>
       <c r="T282" s="9" t="s">
         <v>9160</v>
@@ -45875,7 +45877,7 @@
         <v>1419</v>
       </c>
       <c r="S283" s="9" t="s">
-        <v>9162</v>
+        <v>9161</v>
       </c>
       <c r="T283" s="9" t="s">
         <v>9160</v>
@@ -45938,7 +45940,7 @@
         <v>354</v>
       </c>
       <c r="S284" s="9" t="s">
-        <v>9167</v>
+        <v>9166</v>
       </c>
       <c r="T284" s="9" t="s">
         <v>9160</v>
@@ -46001,7 +46003,7 @@
         <v>1333</v>
       </c>
       <c r="S285" s="9" t="s">
-        <v>9165</v>
+        <v>9164</v>
       </c>
       <c r="T285" s="9" t="s">
         <v>9160</v>
@@ -46064,7 +46066,7 @@
         <v>1301</v>
       </c>
       <c r="S286" s="9" t="s">
-        <v>9165</v>
+        <v>9164</v>
       </c>
       <c r="T286" s="9" t="s">
         <v>9160</v>
@@ -46127,7 +46129,7 @@
         <v>1165</v>
       </c>
       <c r="S287" s="9" t="s">
-        <v>9163</v>
+        <v>9162</v>
       </c>
       <c r="T287" s="9" t="s">
         <v>9160</v>
@@ -46190,7 +46192,7 @@
         <v>770</v>
       </c>
       <c r="S288" s="9" t="s">
-        <v>9164</v>
+        <v>9163</v>
       </c>
       <c r="T288" s="9" t="s">
         <v>9160</v>
@@ -46253,7 +46255,7 @@
         <v>522</v>
       </c>
       <c r="S289" s="9" t="s">
-        <v>9167</v>
+        <v>9166</v>
       </c>
       <c r="T289" s="9" t="s">
         <v>9160</v>
@@ -46316,7 +46318,7 @@
         <v>626</v>
       </c>
       <c r="S290" s="9" t="s">
-        <v>9163</v>
+        <v>9162</v>
       </c>
       <c r="T290" s="9" t="s">
         <v>9160</v>
@@ -46379,7 +46381,7 @@
         <v>1202</v>
       </c>
       <c r="S291" s="9" t="s">
-        <v>9162</v>
+        <v>9161</v>
       </c>
       <c r="T291" s="9" t="s">
         <v>9160</v>
@@ -46442,7 +46444,7 @@
         <v>1315</v>
       </c>
       <c r="S292" s="9" t="s">
-        <v>9165</v>
+        <v>9164</v>
       </c>
       <c r="T292" s="9" t="s">
         <v>9160</v>
@@ -46505,7 +46507,7 @@
         <v>109</v>
       </c>
       <c r="S293" s="9" t="s">
-        <v>9167</v>
+        <v>9166</v>
       </c>
       <c r="T293" s="9" t="s">
         <v>9160</v>
@@ -46568,7 +46570,7 @@
         <v>1183</v>
       </c>
       <c r="S294" s="9" t="s">
-        <v>9162</v>
+        <v>9161</v>
       </c>
       <c r="T294" s="9" t="s">
         <v>9160</v>
@@ -46631,7 +46633,7 @@
         <v>253</v>
       </c>
       <c r="S295" s="9" t="s">
-        <v>9167</v>
+        <v>9166</v>
       </c>
       <c r="T295" s="9" t="s">
         <v>9160</v>
@@ -46694,7 +46696,7 @@
         <v>329</v>
       </c>
       <c r="S296" s="9" t="s">
-        <v>9166</v>
+        <v>9165</v>
       </c>
       <c r="T296" s="9" t="s">
         <v>9160</v>
@@ -46757,7 +46759,7 @@
         <v>688</v>
       </c>
       <c r="S297" s="9" t="s">
-        <v>9165</v>
+        <v>9164</v>
       </c>
       <c r="T297" s="9" t="s">
         <v>9160</v>
@@ -46820,7 +46822,7 @@
         <v>435</v>
       </c>
       <c r="S298" s="9" t="s">
-        <v>9167</v>
+        <v>9166</v>
       </c>
       <c r="T298" s="9" t="s">
         <v>9160</v>
@@ -46883,7 +46885,7 @@
         <v>1301</v>
       </c>
       <c r="S299" s="9" t="s">
-        <v>9165</v>
+        <v>9164</v>
       </c>
       <c r="T299" s="9" t="s">
         <v>9160</v>
@@ -46946,7 +46948,7 @@
         <v>77</v>
       </c>
       <c r="S300" s="9" t="s">
-        <v>9162</v>
+        <v>9161</v>
       </c>
       <c r="T300" s="9" t="s">
         <v>9160</v>
@@ -47009,7 +47011,7 @@
         <v>335</v>
       </c>
       <c r="S301" s="9" t="s">
-        <v>9166</v>
+        <v>9165</v>
       </c>
       <c r="T301" s="9" t="s">
         <v>9160</v>
@@ -47072,7 +47074,7 @@
         <v>74</v>
       </c>
       <c r="S302" s="9" t="s">
-        <v>9162</v>
+        <v>9161</v>
       </c>
       <c r="T302" s="9" t="s">
         <v>9160</v>
@@ -47135,7 +47137,7 @@
         <v>411</v>
       </c>
       <c r="S303" s="9" t="s">
-        <v>9162</v>
+        <v>9161</v>
       </c>
       <c r="T303" s="9" t="s">
         <v>9160</v>
@@ -47198,7 +47200,7 @@
         <v>155</v>
       </c>
       <c r="S304" s="9" t="s">
-        <v>9165</v>
+        <v>9164</v>
       </c>
       <c r="T304" s="9" t="s">
         <v>9160</v>
@@ -47261,7 +47263,7 @@
         <v>1031</v>
       </c>
       <c r="S305" s="9" t="s">
-        <v>9165</v>
+        <v>9164</v>
       </c>
       <c r="T305" s="9" t="s">
         <v>9160</v>
@@ -47324,7 +47326,7 @@
         <v>84</v>
       </c>
       <c r="S306" s="9" t="s">
-        <v>9162</v>
+        <v>9161</v>
       </c>
       <c r="T306" s="9" t="s">
         <v>9160</v>
@@ -47387,7 +47389,7 @@
         <v>247</v>
       </c>
       <c r="S307" s="9" t="s">
-        <v>9162</v>
+        <v>9161</v>
       </c>
       <c r="T307" s="9" t="s">
         <v>9160</v>
@@ -47450,7 +47452,7 @@
         <v>1397</v>
       </c>
       <c r="S308" s="9" t="s">
-        <v>9163</v>
+        <v>9162</v>
       </c>
       <c r="T308" s="9" t="s">
         <v>9160</v>
@@ -47513,7 +47515,7 @@
         <v>706</v>
       </c>
       <c r="S309" s="9" t="s">
-        <v>9163</v>
+        <v>9162</v>
       </c>
       <c r="T309" s="9" t="s">
         <v>9160</v>
@@ -47576,7 +47578,7 @@
         <v>952</v>
       </c>
       <c r="S310" s="9" t="s">
-        <v>9165</v>
+        <v>9164</v>
       </c>
       <c r="T310" s="9" t="s">
         <v>9160</v>
@@ -47639,7 +47641,7 @@
         <v>984</v>
       </c>
       <c r="S311" s="9" t="s">
-        <v>9163</v>
+        <v>9162</v>
       </c>
       <c r="T311" s="9" t="s">
         <v>9160</v>
@@ -47702,7 +47704,7 @@
         <v>430</v>
       </c>
       <c r="S312" s="9" t="s">
-        <v>9166</v>
+        <v>9165</v>
       </c>
       <c r="T312" s="9" t="s">
         <v>9160</v>
@@ -47765,7 +47767,7 @@
         <v>225</v>
       </c>
       <c r="S313" s="9" t="s">
-        <v>9167</v>
+        <v>9166</v>
       </c>
       <c r="T313" s="9" t="s">
         <v>9160</v>
@@ -47828,7 +47830,7 @@
         <v>707</v>
       </c>
       <c r="S314" s="9" t="s">
-        <v>9164</v>
+        <v>9163</v>
       </c>
       <c r="T314" s="9" t="s">
         <v>9160</v>
@@ -47891,7 +47893,7 @@
         <v>441</v>
       </c>
       <c r="S315" s="9" t="s">
-        <v>9165</v>
+        <v>9164</v>
       </c>
       <c r="T315" s="9" t="s">
         <v>9160</v>
@@ -47954,7 +47956,7 @@
         <v>172</v>
       </c>
       <c r="S316" s="9" t="s">
-        <v>9166</v>
+        <v>9165</v>
       </c>
       <c r="T316" s="9" t="s">
         <v>9160</v>
@@ -48017,7 +48019,7 @@
         <v>881</v>
       </c>
       <c r="S317" s="9" t="s">
-        <v>9164</v>
+        <v>9163</v>
       </c>
       <c r="T317" s="9" t="s">
         <v>9160</v>
@@ -48080,7 +48082,7 @@
         <v>435</v>
       </c>
       <c r="S318" s="9" t="s">
-        <v>9166</v>
+        <v>9165</v>
       </c>
       <c r="T318" s="9" t="s">
         <v>9160</v>
@@ -48143,7 +48145,7 @@
         <v>1288</v>
       </c>
       <c r="S319" s="9" t="s">
-        <v>9164</v>
+        <v>9163</v>
       </c>
       <c r="T319" s="9" t="s">
         <v>9160</v>
@@ -48206,7 +48208,7 @@
         <v>357</v>
       </c>
       <c r="S320" s="9" t="s">
-        <v>9164</v>
+        <v>9163</v>
       </c>
       <c r="T320" s="9" t="s">
         <v>9160</v>
@@ -48269,7 +48271,7 @@
         <v>871</v>
       </c>
       <c r="S321" s="9" t="s">
-        <v>9166</v>
+        <v>9165</v>
       </c>
       <c r="T321" s="9" t="s">
         <v>9160</v>
@@ -48332,7 +48334,7 @@
         <v>71</v>
       </c>
       <c r="S322" s="9" t="s">
-        <v>9164</v>
+        <v>9163</v>
       </c>
       <c r="T322" s="9" t="s">
         <v>9160</v>
@@ -48395,7 +48397,7 @@
         <v>1090</v>
       </c>
       <c r="S323" s="9" t="s">
-        <v>9166</v>
+        <v>9165</v>
       </c>
       <c r="T323" s="9" t="s">
         <v>9160</v>
@@ -48458,7 +48460,7 @@
         <v>462</v>
       </c>
       <c r="S324" s="9" t="s">
-        <v>9164</v>
+        <v>9163</v>
       </c>
       <c r="T324" s="9" t="s">
         <v>9160</v>
@@ -48521,7 +48523,7 @@
         <v>1179</v>
       </c>
       <c r="S325" s="9" t="s">
-        <v>9167</v>
+        <v>9166</v>
       </c>
       <c r="T325" s="9" t="s">
         <v>9160</v>
@@ -48584,7 +48586,7 @@
         <v>1345</v>
       </c>
       <c r="S326" s="9" t="s">
-        <v>9162</v>
+        <v>9161</v>
       </c>
       <c r="T326" s="9" t="s">
         <v>9160</v>
@@ -48647,7 +48649,7 @@
         <v>637</v>
       </c>
       <c r="S327" s="9" t="s">
-        <v>9165</v>
+        <v>9164</v>
       </c>
       <c r="T327" s="9" t="s">
         <v>9160</v>
@@ -48710,7 +48712,7 @@
         <v>97</v>
       </c>
       <c r="S328" s="9" t="s">
-        <v>9166</v>
+        <v>9165</v>
       </c>
       <c r="T328" s="9" t="s">
         <v>9160</v>
@@ -48773,7 +48775,7 @@
         <v>407</v>
       </c>
       <c r="S329" s="9" t="s">
-        <v>9165</v>
+        <v>9164</v>
       </c>
       <c r="T329" s="9" t="s">
         <v>9160</v>
@@ -48836,7 +48838,7 @@
         <v>559</v>
       </c>
       <c r="S330" s="9" t="s">
-        <v>9167</v>
+        <v>9166</v>
       </c>
       <c r="T330" s="9" t="s">
         <v>9160</v>
@@ -48899,7 +48901,7 @@
         <v>782</v>
       </c>
       <c r="S331" s="9" t="s">
-        <v>9165</v>
+        <v>9164</v>
       </c>
       <c r="T331" s="9" t="s">
         <v>9160</v>
@@ -48962,7 +48964,7 @@
         <v>104</v>
       </c>
       <c r="S332" s="9" t="s">
-        <v>9166</v>
+        <v>9165</v>
       </c>
       <c r="T332" s="9" t="s">
         <v>9160</v>
@@ -49025,7 +49027,7 @@
         <v>129</v>
       </c>
       <c r="S333" s="9" t="s">
-        <v>9167</v>
+        <v>9166</v>
       </c>
       <c r="T333" s="9" t="s">
         <v>9160</v>
@@ -49088,7 +49090,7 @@
         <v>29</v>
       </c>
       <c r="S334" s="9" t="s">
-        <v>9167</v>
+        <v>9166</v>
       </c>
       <c r="T334" s="9" t="s">
         <v>9160</v>
@@ -49151,7 +49153,7 @@
         <v>1273</v>
       </c>
       <c r="S335" s="9" t="s">
-        <v>9163</v>
+        <v>9162</v>
       </c>
       <c r="T335" s="9" t="s">
         <v>9160</v>
@@ -49214,7 +49216,7 @@
         <v>45</v>
       </c>
       <c r="S336" s="9" t="s">
-        <v>9166</v>
+        <v>9165</v>
       </c>
       <c r="T336" s="9" t="s">
         <v>9160</v>
@@ -49277,7 +49279,7 @@
         <v>97</v>
       </c>
       <c r="S337" s="9" t="s">
-        <v>9167</v>
+        <v>9166</v>
       </c>
       <c r="T337" s="9" t="s">
         <v>9160</v>
@@ -49340,7 +49342,7 @@
         <v>153</v>
       </c>
       <c r="S338" s="9" t="s">
-        <v>9167</v>
+        <v>9166</v>
       </c>
       <c r="T338" s="9" t="s">
         <v>9160</v>
@@ -49403,7 +49405,7 @@
         <v>1072</v>
       </c>
       <c r="S339" s="9" t="s">
-        <v>9167</v>
+        <v>9166</v>
       </c>
       <c r="T339" s="9" t="s">
         <v>9160</v>
@@ -49466,7 +49468,7 @@
         <v>1215</v>
       </c>
       <c r="S340" s="9" t="s">
-        <v>9163</v>
+        <v>9162</v>
       </c>
       <c r="T340" s="9" t="s">
         <v>9160</v>
@@ -49529,7 +49531,7 @@
         <v>602</v>
       </c>
       <c r="S341" s="9" t="s">
-        <v>9162</v>
+        <v>9161</v>
       </c>
       <c r="T341" s="9" t="s">
         <v>9160</v>
@@ -49592,7 +49594,7 @@
         <v>770</v>
       </c>
       <c r="S342" s="9" t="s">
-        <v>9163</v>
+        <v>9162</v>
       </c>
       <c r="T342" s="9" t="s">
         <v>9160</v>
@@ -49655,7 +49657,7 @@
         <v>539</v>
       </c>
       <c r="S343" s="9" t="s">
-        <v>9164</v>
+        <v>9163</v>
       </c>
       <c r="T343" s="9" t="s">
         <v>9160</v>
@@ -49718,7 +49720,7 @@
         <v>253</v>
       </c>
       <c r="S344" s="9" t="s">
-        <v>9166</v>
+        <v>9165</v>
       </c>
       <c r="T344" s="9" t="s">
         <v>9160</v>
@@ -49781,7 +49783,7 @@
         <v>513</v>
       </c>
       <c r="S345" s="9" t="s">
-        <v>9162</v>
+        <v>9161</v>
       </c>
       <c r="T345" s="9" t="s">
         <v>9160</v>
@@ -49844,7 +49846,7 @@
         <v>941</v>
       </c>
       <c r="S346" s="9" t="s">
-        <v>9163</v>
+        <v>9162</v>
       </c>
       <c r="T346" s="9" t="s">
         <v>9160</v>
@@ -49907,7 +49909,7 @@
         <v>251</v>
       </c>
       <c r="S347" s="9" t="s">
-        <v>9164</v>
+        <v>9163</v>
       </c>
       <c r="T347" s="9" t="s">
         <v>9160</v>
@@ -49970,7 +49972,7 @@
         <v>430</v>
       </c>
       <c r="S348" s="9" t="s">
-        <v>9167</v>
+        <v>9166</v>
       </c>
       <c r="T348" s="9" t="s">
         <v>9160</v>
@@ -50033,7 +50035,7 @@
         <v>435</v>
       </c>
       <c r="S349" s="9" t="s">
-        <v>9163</v>
+        <v>9162</v>
       </c>
       <c r="T349" s="9" t="s">
         <v>9160</v>
@@ -50096,7 +50098,7 @@
         <v>1097</v>
       </c>
       <c r="S350" s="9" t="s">
-        <v>9164</v>
+        <v>9163</v>
       </c>
       <c r="T350" s="9" t="s">
         <v>9160</v>
@@ -50159,7 +50161,7 @@
         <v>658</v>
       </c>
       <c r="S351" s="9" t="s">
-        <v>9162</v>
+        <v>9161</v>
       </c>
       <c r="T351" s="9" t="s">
         <v>9160</v>
@@ -50222,7 +50224,7 @@
         <v>411</v>
       </c>
       <c r="S352" s="9" t="s">
-        <v>9167</v>
+        <v>9166</v>
       </c>
       <c r="T352" s="9" t="s">
         <v>9160</v>
@@ -50285,7 +50287,7 @@
         <v>767</v>
       </c>
       <c r="S353" s="9" t="s">
-        <v>9163</v>
+        <v>9162</v>
       </c>
       <c r="T353" s="9" t="s">
         <v>9160</v>
@@ -50348,7 +50350,7 @@
         <v>459</v>
       </c>
       <c r="S354" s="9" t="s">
-        <v>9166</v>
+        <v>9165</v>
       </c>
       <c r="T354" s="9" t="s">
         <v>9160</v>
@@ -50411,7 +50413,7 @@
         <v>1055</v>
       </c>
       <c r="S355" s="9" t="s">
-        <v>9166</v>
+        <v>9165</v>
       </c>
       <c r="T355" s="9" t="s">
         <v>9160</v>
@@ -50474,7 +50476,7 @@
         <v>81</v>
       </c>
       <c r="S356" s="9" t="s">
-        <v>9166</v>
+        <v>9165</v>
       </c>
       <c r="T356" s="9" t="s">
         <v>9160</v>
@@ -50537,7 +50539,7 @@
         <v>911</v>
       </c>
       <c r="S357" s="9" t="s">
-        <v>9167</v>
+        <v>9166</v>
       </c>
       <c r="T357" s="9" t="s">
         <v>9160</v>
@@ -50600,7 +50602,7 @@
         <v>1387</v>
       </c>
       <c r="S358" s="9" t="s">
-        <v>9163</v>
+        <v>9162</v>
       </c>
       <c r="T358" s="9" t="s">
         <v>9160</v>
@@ -50663,7 +50665,7 @@
         <v>1279</v>
       </c>
       <c r="S359" s="9" t="s">
-        <v>9164</v>
+        <v>9163</v>
       </c>
       <c r="T359" s="9" t="s">
         <v>9160</v>
@@ -50726,7 +50728,7 @@
         <v>554</v>
       </c>
       <c r="S360" s="9" t="s">
-        <v>9164</v>
+        <v>9163</v>
       </c>
       <c r="T360" s="9" t="s">
         <v>9160</v>
@@ -50789,7 +50791,7 @@
         <v>434</v>
       </c>
       <c r="S361" s="9" t="s">
-        <v>9166</v>
+        <v>9165</v>
       </c>
       <c r="T361" s="9" t="s">
         <v>9160</v>
@@ -50852,7 +50854,7 @@
         <v>384</v>
       </c>
       <c r="S362" s="9" t="s">
-        <v>9165</v>
+        <v>9164</v>
       </c>
       <c r="T362" s="9" t="s">
         <v>9160</v>
@@ -50915,7 +50917,7 @@
         <v>682</v>
       </c>
       <c r="S363" s="9" t="s">
-        <v>9162</v>
+        <v>9161</v>
       </c>
       <c r="T363" s="9" t="s">
         <v>9160</v>
@@ -50978,7 +50980,7 @@
         <v>5480</v>
       </c>
       <c r="S364" s="9" t="s">
-        <v>9166</v>
+        <v>9165</v>
       </c>
       <c r="T364" s="9" t="s">
         <v>9160</v>
@@ -51041,7 +51043,7 @@
         <v>1356</v>
       </c>
       <c r="S365" s="9" t="s">
-        <v>9165</v>
+        <v>9164</v>
       </c>
       <c r="T365" s="9" t="s">
         <v>9160</v>
@@ -51104,7 +51106,7 @@
         <v>935</v>
       </c>
       <c r="S366" s="9" t="s">
-        <v>9166</v>
+        <v>9165</v>
       </c>
       <c r="T366" s="9" t="s">
         <v>9160</v>
@@ -51167,7 +51169,7 @@
         <v>187</v>
       </c>
       <c r="S367" s="9" t="s">
-        <v>9166</v>
+        <v>9165</v>
       </c>
       <c r="T367" s="9" t="s">
         <v>9160</v>
@@ -51230,7 +51232,7 @@
         <v>1347</v>
       </c>
       <c r="S368" s="9" t="s">
-        <v>9165</v>
+        <v>9164</v>
       </c>
       <c r="T368" s="9" t="s">
         <v>9160</v>
@@ -51293,7 +51295,7 @@
         <v>211</v>
       </c>
       <c r="S369" s="9" t="s">
-        <v>9164</v>
+        <v>9163</v>
       </c>
       <c r="T369" s="9" t="s">
         <v>9160</v>
@@ -51356,7 +51358,7 @@
         <v>1221</v>
       </c>
       <c r="S370" s="9" t="s">
-        <v>9163</v>
+        <v>9162</v>
       </c>
       <c r="T370" s="9" t="s">
         <v>9160</v>
@@ -51419,7 +51421,7 @@
         <v>1386</v>
       </c>
       <c r="S371" s="9" t="s">
-        <v>9165</v>
+        <v>9164</v>
       </c>
       <c r="T371" s="9" t="s">
         <v>9160</v>
@@ -51482,7 +51484,7 @@
         <v>808</v>
       </c>
       <c r="S372" s="9" t="s">
-        <v>9162</v>
+        <v>9161</v>
       </c>
       <c r="T372" s="9" t="s">
         <v>9160</v>
@@ -51545,7 +51547,7 @@
         <v>44</v>
       </c>
       <c r="S373" s="9" t="s">
-        <v>9163</v>
+        <v>9162</v>
       </c>
       <c r="T373" s="9" t="s">
         <v>9160</v>
@@ -51608,7 +51610,7 @@
         <v>854</v>
       </c>
       <c r="S374" s="9" t="s">
-        <v>9165</v>
+        <v>9164</v>
       </c>
       <c r="T374" s="9" t="s">
         <v>9160</v>
@@ -51671,7 +51673,7 @@
         <v>139</v>
       </c>
       <c r="S375" s="9" t="s">
-        <v>9167</v>
+        <v>9166</v>
       </c>
       <c r="T375" s="9" t="s">
         <v>9160</v>
@@ -51734,7 +51736,7 @@
         <v>513</v>
       </c>
       <c r="S376" s="9" t="s">
-        <v>9167</v>
+        <v>9166</v>
       </c>
       <c r="T376" s="9" t="s">
         <v>9160</v>
@@ -51797,7 +51799,7 @@
         <v>132</v>
       </c>
       <c r="S377" s="9" t="s">
-        <v>9163</v>
+        <v>9162</v>
       </c>
       <c r="T377" s="9" t="s">
         <v>9160</v>
@@ -51860,7 +51862,7 @@
         <v>1046</v>
       </c>
       <c r="S378" s="9" t="s">
-        <v>9162</v>
+        <v>9161</v>
       </c>
       <c r="T378" s="9" t="s">
         <v>9160</v>
@@ -51923,7 +51925,7 @@
         <v>616</v>
       </c>
       <c r="S379" s="9" t="s">
-        <v>9162</v>
+        <v>9161</v>
       </c>
       <c r="T379" s="9" t="s">
         <v>9160</v>
@@ -51986,7 +51988,7 @@
         <v>85</v>
       </c>
       <c r="S380" s="9" t="s">
-        <v>9163</v>
+        <v>9162</v>
       </c>
       <c r="T380" s="9" t="s">
         <v>9160</v>
@@ -52049,7 +52051,7 @@
         <v>771</v>
       </c>
       <c r="S381" s="9" t="s">
-        <v>9164</v>
+        <v>9163</v>
       </c>
       <c r="T381" s="9" t="s">
         <v>9160</v>
@@ -52112,7 +52114,7 @@
         <v>270</v>
       </c>
       <c r="S382" s="9" t="s">
-        <v>9165</v>
+        <v>9164</v>
       </c>
       <c r="T382" s="9" t="s">
         <v>9160</v>
@@ -52175,7 +52177,7 @@
         <v>84</v>
       </c>
       <c r="S383" s="9" t="s">
-        <v>9165</v>
+        <v>9164</v>
       </c>
       <c r="T383" s="9" t="s">
         <v>9160</v>
@@ -52238,7 +52240,7 @@
         <v>476</v>
       </c>
       <c r="S384" s="9" t="s">
-        <v>9163</v>
+        <v>9162</v>
       </c>
       <c r="T384" s="9" t="s">
         <v>9160</v>
@@ -52301,7 +52303,7 @@
         <v>136</v>
       </c>
       <c r="S385" s="9" t="s">
-        <v>9163</v>
+        <v>9162</v>
       </c>
       <c r="T385" s="9" t="s">
         <v>9160</v>
@@ -52364,7 +52366,7 @@
         <v>299</v>
       </c>
       <c r="S386" s="9" t="s">
-        <v>9167</v>
+        <v>9166</v>
       </c>
       <c r="T386" s="9" t="s">
         <v>9160</v>
@@ -52427,7 +52429,7 @@
         <v>1299</v>
       </c>
       <c r="S387" s="9" t="s">
-        <v>9167</v>
+        <v>9166</v>
       </c>
       <c r="T387" s="9" t="s">
         <v>9160</v>
@@ -52490,7 +52492,7 @@
         <v>681</v>
       </c>
       <c r="S388" s="9" t="s">
-        <v>9165</v>
+        <v>9164</v>
       </c>
       <c r="T388" s="9" t="s">
         <v>9160</v>
@@ -52553,7 +52555,7 @@
         <v>755</v>
       </c>
       <c r="S389" s="9" t="s">
-        <v>9166</v>
+        <v>9165</v>
       </c>
       <c r="T389" s="9" t="s">
         <v>9160</v>
@@ -52616,7 +52618,7 @@
         <v>1187</v>
       </c>
       <c r="S390" s="9" t="s">
-        <v>9166</v>
+        <v>9165</v>
       </c>
       <c r="T390" s="9" t="s">
         <v>9160</v>
@@ -52679,7 +52681,7 @@
         <v>406</v>
       </c>
       <c r="S391" s="9" t="s">
-        <v>9163</v>
+        <v>9162</v>
       </c>
       <c r="T391" s="9" t="s">
         <v>9160</v>
@@ -52742,7 +52744,7 @@
         <v>467</v>
       </c>
       <c r="S392" s="9" t="s">
-        <v>9162</v>
+        <v>9161</v>
       </c>
       <c r="T392" s="9" t="s">
         <v>9160</v>
@@ -52805,7 +52807,7 @@
         <v>366</v>
       </c>
       <c r="S393" s="9" t="s">
-        <v>9162</v>
+        <v>9161</v>
       </c>
       <c r="T393" s="9" t="s">
         <v>9160</v>
@@ -52868,7 +52870,7 @@
         <v>109</v>
       </c>
       <c r="S394" s="9" t="s">
-        <v>9162</v>
+        <v>9161</v>
       </c>
       <c r="T394" s="9" t="s">
         <v>9160</v>
@@ -52931,7 +52933,7 @@
         <v>155</v>
       </c>
       <c r="S395" s="9" t="s">
-        <v>9162</v>
+        <v>9161</v>
       </c>
       <c r="T395" s="9" t="s">
         <v>9160</v>
@@ -52994,7 +52996,7 @@
         <v>805</v>
       </c>
       <c r="S396" s="9" t="s">
-        <v>9164</v>
+        <v>9163</v>
       </c>
       <c r="T396" s="9" t="s">
         <v>9160</v>
@@ -53057,7 +53059,7 @@
         <v>736</v>
       </c>
       <c r="S397" s="9" t="s">
-        <v>9162</v>
+        <v>9161</v>
       </c>
       <c r="T397" s="9" t="s">
         <v>9160</v>
@@ -53120,7 +53122,7 @@
         <v>1193</v>
       </c>
       <c r="S398" s="9" t="s">
-        <v>9165</v>
+        <v>9164</v>
       </c>
       <c r="T398" s="9" t="s">
         <v>9160</v>
@@ -53183,7 +53185,7 @@
         <v>695</v>
       </c>
       <c r="S399" s="9" t="s">
-        <v>9162</v>
+        <v>9161</v>
       </c>
       <c r="T399" s="9" t="s">
         <v>9160</v>
@@ -53246,7 +53248,7 @@
         <v>65</v>
       </c>
       <c r="S400" s="9" t="s">
-        <v>9167</v>
+        <v>9166</v>
       </c>
       <c r="T400" s="9" t="s">
         <v>9160</v>
@@ -53309,7 +53311,7 @@
         <v>84</v>
       </c>
       <c r="S401" s="9" t="s">
-        <v>9167</v>
+        <v>9166</v>
       </c>
       <c r="T401" s="9" t="s">
         <v>9160</v>
@@ -53372,7 +53374,7 @@
         <v>5004</v>
       </c>
       <c r="S402" s="9" t="s">
-        <v>9163</v>
+        <v>9162</v>
       </c>
       <c r="T402" s="9" t="s">
         <v>9160</v>
@@ -53435,7 +53437,7 @@
         <v>168</v>
       </c>
       <c r="S403" s="9" t="s">
-        <v>9166</v>
+        <v>9165</v>
       </c>
       <c r="T403" s="9" t="s">
         <v>9160</v>
@@ -53498,7 +53500,7 @@
         <v>60</v>
       </c>
       <c r="S404" s="9" t="s">
-        <v>9165</v>
+        <v>9164</v>
       </c>
       <c r="T404" s="9" t="s">
         <v>9160</v>
@@ -53561,7 +53563,7 @@
         <v>331</v>
       </c>
       <c r="S405" s="9" t="s">
-        <v>9167</v>
+        <v>9166</v>
       </c>
       <c r="T405" s="9" t="s">
         <v>9160</v>
@@ -53624,7 +53626,7 @@
         <v>1212</v>
       </c>
       <c r="S406" s="9" t="s">
-        <v>9166</v>
+        <v>9165</v>
       </c>
       <c r="T406" s="9" t="s">
         <v>9160</v>
@@ -53687,7 +53689,7 @@
         <v>841</v>
       </c>
       <c r="S407" s="9" t="s">
-        <v>9163</v>
+        <v>9162</v>
       </c>
       <c r="T407" s="9" t="s">
         <v>9160</v>
@@ -53750,7 +53752,7 @@
         <v>1116</v>
       </c>
       <c r="S408" s="9" t="s">
-        <v>9167</v>
+        <v>9166</v>
       </c>
       <c r="T408" s="9" t="s">
         <v>9160</v>
@@ -53813,7 +53815,7 @@
         <v>918</v>
       </c>
       <c r="S409" s="9" t="s">
-        <v>9167</v>
+        <v>9166</v>
       </c>
       <c r="T409" s="9" t="s">
         <v>9160</v>
@@ -53876,7 +53878,7 @@
         <v>401</v>
       </c>
       <c r="S410" s="9" t="s">
-        <v>9163</v>
+        <v>9162</v>
       </c>
       <c r="T410" s="9" t="s">
         <v>9160</v>
@@ -53939,7 +53941,7 @@
         <v>1031</v>
       </c>
       <c r="S411" s="9" t="s">
-        <v>9165</v>
+        <v>9164</v>
       </c>
       <c r="T411" s="9" t="s">
         <v>9160</v>
@@ -54002,7 +54004,7 @@
         <v>1170</v>
       </c>
       <c r="S412" s="9" t="s">
-        <v>9167</v>
+        <v>9166</v>
       </c>
       <c r="T412" s="9" t="s">
         <v>9160</v>
@@ -54065,7 +54067,7 @@
         <v>558</v>
       </c>
       <c r="S413" s="9" t="s">
-        <v>9164</v>
+        <v>9163</v>
       </c>
       <c r="T413" s="9" t="s">
         <v>9160</v>
@@ -54128,7 +54130,7 @@
         <v>1395</v>
       </c>
       <c r="S414" s="9" t="s">
-        <v>9163</v>
+        <v>9162</v>
       </c>
       <c r="T414" s="9" t="s">
         <v>9160</v>
@@ -54191,7 +54193,7 @@
         <v>1094</v>
       </c>
       <c r="S415" s="9" t="s">
-        <v>9165</v>
+        <v>9164</v>
       </c>
       <c r="T415" s="9" t="s">
         <v>9160</v>
@@ -54254,7 +54256,7 @@
         <v>313</v>
       </c>
       <c r="S416" s="9" t="s">
-        <v>9167</v>
+        <v>9166</v>
       </c>
       <c r="T416" s="9" t="s">
         <v>9160</v>
@@ -54317,7 +54319,7 @@
         <v>176</v>
       </c>
       <c r="S417" s="9" t="s">
-        <v>9162</v>
+        <v>9161</v>
       </c>
       <c r="T417" s="9" t="s">
         <v>9160</v>
@@ -54380,7 +54382,7 @@
         <v>529</v>
       </c>
       <c r="S418" s="9" t="s">
-        <v>9164</v>
+        <v>9163</v>
       </c>
       <c r="T418" s="9" t="s">
         <v>9160</v>
@@ -54443,7 +54445,7 @@
         <v>401</v>
       </c>
       <c r="S419" s="9" t="s">
-        <v>9165</v>
+        <v>9164</v>
       </c>
       <c r="T419" s="9" t="s">
         <v>9160</v>
@@ -54506,7 +54508,7 @@
         <v>1337</v>
       </c>
       <c r="S420" s="9" t="s">
-        <v>9166</v>
+        <v>9165</v>
       </c>
       <c r="T420" s="9" t="s">
         <v>9160</v>
@@ -54569,7 +54571,7 @@
         <v>1395</v>
       </c>
       <c r="S421" s="9" t="s">
-        <v>9163</v>
+        <v>9162</v>
       </c>
       <c r="T421" s="9" t="s">
         <v>9160</v>
@@ -54632,7 +54634,7 @@
         <v>1385</v>
       </c>
       <c r="S422" s="9" t="s">
-        <v>9165</v>
+        <v>9164</v>
       </c>
       <c r="T422" s="9" t="s">
         <v>9160</v>
@@ -54695,7 +54697,7 @@
         <v>517</v>
       </c>
       <c r="S423" s="9" t="s">
-        <v>9167</v>
+        <v>9166</v>
       </c>
       <c r="T423" s="9" t="s">
         <v>9160</v>
@@ -54758,7 +54760,7 @@
         <v>678</v>
       </c>
       <c r="S424" s="9" t="s">
-        <v>9165</v>
+        <v>9164</v>
       </c>
       <c r="T424" s="9" t="s">
         <v>9160</v>
@@ -54821,7 +54823,7 @@
         <v>394</v>
       </c>
       <c r="S425" s="9" t="s">
-        <v>9165</v>
+        <v>9164</v>
       </c>
       <c r="T425" s="9" t="s">
         <v>9160</v>
@@ -54884,7 +54886,7 @@
         <v>1037</v>
       </c>
       <c r="S426" s="9" t="s">
-        <v>9162</v>
+        <v>9161</v>
       </c>
       <c r="T426" s="9" t="s">
         <v>9160</v>
@@ -54947,7 +54949,7 @@
         <v>89</v>
       </c>
       <c r="S427" s="9" t="s">
-        <v>9163</v>
+        <v>9162</v>
       </c>
       <c r="T427" s="9" t="s">
         <v>9160</v>
@@ -55010,7 +55012,7 @@
         <v>1205</v>
       </c>
       <c r="S428" s="9" t="s">
-        <v>9164</v>
+        <v>9163</v>
       </c>
       <c r="T428" s="9" t="s">
         <v>9160</v>
@@ -55073,7 +55075,7 @@
         <v>522</v>
       </c>
       <c r="S429" s="9" t="s">
-        <v>9162</v>
+        <v>9161</v>
       </c>
       <c r="T429" s="9" t="s">
         <v>9160</v>
@@ -55136,7 +55138,7 @@
         <v>274</v>
       </c>
       <c r="S430" s="9" t="s">
-        <v>9165</v>
+        <v>9164</v>
       </c>
       <c r="T430" s="9" t="s">
         <v>9160</v>
@@ -55199,7 +55201,7 @@
         <v>235</v>
       </c>
       <c r="S431" s="9" t="s">
-        <v>9167</v>
+        <v>9166</v>
       </c>
       <c r="T431" s="9" t="s">
         <v>9160</v>
@@ -55262,7 +55264,7 @@
         <v>1298</v>
       </c>
       <c r="S432" s="9" t="s">
-        <v>9164</v>
+        <v>9163</v>
       </c>
       <c r="T432" s="9" t="s">
         <v>9160</v>
@@ -55325,7 +55327,7 @@
         <v>571</v>
       </c>
       <c r="S433" s="9" t="s">
-        <v>9167</v>
+        <v>9166</v>
       </c>
       <c r="T433" s="9" t="s">
         <v>9160</v>
@@ -55388,7 +55390,7 @@
         <v>1347</v>
       </c>
       <c r="S434" s="9" t="s">
-        <v>9163</v>
+        <v>9162</v>
       </c>
       <c r="T434" s="9" t="s">
         <v>9160</v>
@@ -55451,7 +55453,7 @@
         <v>984</v>
       </c>
       <c r="S435" s="9" t="s">
-        <v>9164</v>
+        <v>9163</v>
       </c>
       <c r="T435" s="9" t="s">
         <v>9160</v>
@@ -55514,7 +55516,7 @@
         <v>1221</v>
       </c>
       <c r="S436" s="9" t="s">
-        <v>9162</v>
+        <v>9161</v>
       </c>
       <c r="T436" s="9" t="s">
         <v>9160</v>
@@ -55577,7 +55579,7 @@
         <v>665</v>
       </c>
       <c r="S437" s="9" t="s">
-        <v>9166</v>
+        <v>9165</v>
       </c>
       <c r="T437" s="9" t="s">
         <v>9160</v>
@@ -55640,7 +55642,7 @@
         <v>987</v>
       </c>
       <c r="S438" s="9" t="s">
-        <v>9163</v>
+        <v>9162</v>
       </c>
       <c r="T438" s="9" t="s">
         <v>9160</v>
@@ -55703,7 +55705,7 @@
         <v>458</v>
       </c>
       <c r="S439" s="9" t="s">
-        <v>9167</v>
+        <v>9166</v>
       </c>
       <c r="T439" s="9" t="s">
         <v>9160</v>
@@ -55766,7 +55768,7 @@
         <v>1287</v>
       </c>
       <c r="S440" s="9" t="s">
-        <v>9167</v>
+        <v>9166</v>
       </c>
       <c r="T440" s="9" t="s">
         <v>9160</v>
@@ -55829,7 +55831,7 @@
         <v>360</v>
       </c>
       <c r="S441" s="9" t="s">
-        <v>9162</v>
+        <v>9161</v>
       </c>
       <c r="T441" s="9" t="s">
         <v>9160</v>
@@ -55892,7 +55894,7 @@
         <v>1298</v>
       </c>
       <c r="S442" s="9" t="s">
-        <v>9163</v>
+        <v>9162</v>
       </c>
       <c r="T442" s="9" t="s">
         <v>9160</v>
@@ -55955,7 +55957,7 @@
         <v>807</v>
       </c>
       <c r="S443" s="9" t="s">
-        <v>9167</v>
+        <v>9166</v>
       </c>
       <c r="T443" s="9" t="s">
         <v>9160</v>
@@ -56018,7 +56020,7 @@
         <v>223</v>
       </c>
       <c r="S444" s="9" t="s">
-        <v>9163</v>
+        <v>9162</v>
       </c>
       <c r="T444" s="9" t="s">
         <v>9160</v>
@@ -56081,7 +56083,7 @@
         <v>187</v>
       </c>
       <c r="S445" s="9" t="s">
-        <v>9162</v>
+        <v>9161</v>
       </c>
       <c r="T445" s="9" t="s">
         <v>9160</v>
@@ -56144,7 +56146,7 @@
         <v>1209</v>
       </c>
       <c r="S446" s="9" t="s">
-        <v>9166</v>
+        <v>9165</v>
       </c>
       <c r="T446" s="9" t="s">
         <v>9160</v>
@@ -56207,7 +56209,7 @@
         <v>1395</v>
       </c>
       <c r="S447" s="9" t="s">
-        <v>9163</v>
+        <v>9162</v>
       </c>
       <c r="T447" s="9" t="s">
         <v>9160</v>
@@ -56270,7 +56272,7 @@
         <v>1094</v>
       </c>
       <c r="S448" s="9" t="s">
-        <v>9165</v>
+        <v>9164</v>
       </c>
       <c r="T448" s="9" t="s">
         <v>9160</v>
@@ -56333,7 +56335,7 @@
         <v>117</v>
       </c>
       <c r="S449" s="9" t="s">
-        <v>9165</v>
+        <v>9164</v>
       </c>
       <c r="T449" s="9" t="s">
         <v>9160</v>
@@ -56396,7 +56398,7 @@
         <v>6421</v>
       </c>
       <c r="S450" s="9" t="s">
-        <v>9167</v>
+        <v>9166</v>
       </c>
       <c r="T450" s="9" t="s">
         <v>9160</v>
@@ -56459,7 +56461,7 @@
         <v>834</v>
       </c>
       <c r="S451" s="9" t="s">
-        <v>9166</v>
+        <v>9165</v>
       </c>
       <c r="T451" s="9" t="s">
         <v>9160</v>
@@ -56522,7 +56524,7 @@
         <v>887</v>
       </c>
       <c r="S452" s="9" t="s">
-        <v>9164</v>
+        <v>9163</v>
       </c>
       <c r="T452" s="9" t="s">
         <v>9160</v>
@@ -56585,7 +56587,7 @@
         <v>211</v>
       </c>
       <c r="S453" s="9" t="s">
-        <v>9165</v>
+        <v>9164</v>
       </c>
       <c r="T453" s="9" t="s">
         <v>9160</v>
@@ -56648,7 +56650,7 @@
         <v>1187</v>
       </c>
       <c r="S454" s="9" t="s">
-        <v>9163</v>
+        <v>9162</v>
       </c>
       <c r="T454" s="9" t="s">
         <v>9160</v>
@@ -56711,7 +56713,7 @@
         <v>213</v>
       </c>
       <c r="S455" s="9" t="s">
-        <v>9162</v>
+        <v>9161</v>
       </c>
       <c r="T455" s="9" t="s">
         <v>9160</v>
@@ -56774,7 +56776,7 @@
         <v>338</v>
       </c>
       <c r="S456" s="9" t="s">
-        <v>9162</v>
+        <v>9161</v>
       </c>
       <c r="T456" s="9" t="s">
         <v>9160</v>
@@ -56837,7 +56839,7 @@
         <v>366</v>
       </c>
       <c r="S457" s="9" t="s">
-        <v>9164</v>
+        <v>9163</v>
       </c>
       <c r="T457" s="9" t="s">
         <v>9160</v>
@@ -56900,7 +56902,7 @@
         <v>526</v>
       </c>
       <c r="S458" s="9" t="s">
-        <v>9163</v>
+        <v>9162</v>
       </c>
       <c r="T458" s="9" t="s">
         <v>9160</v>
@@ -56963,7 +56965,7 @@
         <v>548</v>
       </c>
       <c r="S459" s="9" t="s">
-        <v>9165</v>
+        <v>9164</v>
       </c>
       <c r="T459" s="9" t="s">
         <v>9160</v>
@@ -57026,7 +57028,7 @@
         <v>1251</v>
       </c>
       <c r="S460" s="9" t="s">
-        <v>9162</v>
+        <v>9161</v>
       </c>
       <c r="T460" s="9" t="s">
         <v>9160</v>
@@ -57089,7 +57091,7 @@
         <v>332</v>
       </c>
       <c r="S461" s="9" t="s">
-        <v>9163</v>
+        <v>9162</v>
       </c>
       <c r="T461" s="9" t="s">
         <v>9160</v>
@@ -57152,7 +57154,7 @@
         <v>1063</v>
       </c>
       <c r="S462" s="9" t="s">
-        <v>9162</v>
+        <v>9161</v>
       </c>
       <c r="T462" s="9" t="s">
         <v>9160</v>
@@ -57215,7 +57217,7 @@
         <v>762</v>
       </c>
       <c r="S463" s="9" t="s">
-        <v>9162</v>
+        <v>9161</v>
       </c>
       <c r="T463" s="9" t="s">
         <v>9160</v>
@@ -57278,7 +57280,7 @@
         <v>535</v>
       </c>
       <c r="S464" s="9" t="s">
-        <v>9164</v>
+        <v>9163</v>
       </c>
       <c r="T464" s="9" t="s">
         <v>9160</v>
@@ -57341,7 +57343,7 @@
         <v>1315</v>
       </c>
       <c r="S465" s="9" t="s">
-        <v>9163</v>
+        <v>9162</v>
       </c>
       <c r="T465" s="9" t="s">
         <v>9160</v>
@@ -57404,7 +57406,7 @@
         <v>342</v>
       </c>
       <c r="S466" s="9" t="s">
-        <v>9164</v>
+        <v>9163</v>
       </c>
       <c r="T466" s="9" t="s">
         <v>9160</v>
@@ -57467,7 +57469,7 @@
         <v>180</v>
       </c>
       <c r="S467" s="9" t="s">
-        <v>9167</v>
+        <v>9166</v>
       </c>
       <c r="T467" s="9" t="s">
         <v>9160</v>
@@ -57530,7 +57532,7 @@
         <v>1158</v>
       </c>
       <c r="S468" s="9" t="s">
-        <v>9166</v>
+        <v>9165</v>
       </c>
       <c r="T468" s="9" t="s">
         <v>9160</v>
@@ -57593,7 +57595,7 @@
         <v>517</v>
       </c>
       <c r="S469" s="9" t="s">
-        <v>9167</v>
+        <v>9166</v>
       </c>
       <c r="T469" s="9" t="s">
         <v>9160</v>
@@ -57656,7 +57658,7 @@
         <v>89</v>
       </c>
       <c r="S470" s="9" t="s">
-        <v>9166</v>
+        <v>9165</v>
       </c>
       <c r="T470" s="9" t="s">
         <v>9160</v>
@@ -57719,7 +57721,7 @@
         <v>952</v>
       </c>
       <c r="S471" s="9" t="s">
-        <v>9165</v>
+        <v>9164</v>
       </c>
       <c r="T471" s="9" t="s">
         <v>9160</v>
@@ -57782,7 +57784,7 @@
         <v>228</v>
       </c>
       <c r="S472" s="9" t="s">
-        <v>9166</v>
+        <v>9165</v>
       </c>
       <c r="T472" s="9" t="s">
         <v>9160</v>
@@ -57845,7 +57847,7 @@
         <v>1238</v>
       </c>
       <c r="S473" s="9" t="s">
-        <v>9165</v>
+        <v>9164</v>
       </c>
       <c r="T473" s="9" t="s">
         <v>9160</v>
@@ -57908,7 +57910,7 @@
         <v>255</v>
       </c>
       <c r="S474" s="9" t="s">
-        <v>9162</v>
+        <v>9161</v>
       </c>
       <c r="T474" s="9" t="s">
         <v>9160</v>
@@ -57971,7 +57973,7 @@
         <v>1975</v>
       </c>
       <c r="S475" s="9" t="s">
-        <v>9167</v>
+        <v>9166</v>
       </c>
       <c r="T475" s="9" t="s">
         <v>9160</v>
@@ -58034,7 +58036,7 @@
         <v>658</v>
       </c>
       <c r="S476" s="9" t="s">
-        <v>9165</v>
+        <v>9164</v>
       </c>
       <c r="T476" s="9" t="s">
         <v>9160</v>
@@ -58097,7 +58099,7 @@
         <v>1060</v>
       </c>
       <c r="S477" s="9" t="s">
-        <v>9162</v>
+        <v>9161</v>
       </c>
       <c r="T477" s="9" t="s">
         <v>9160</v>
@@ -58160,7 +58162,7 @@
         <v>1397</v>
       </c>
       <c r="S478" s="9" t="s">
-        <v>9166</v>
+        <v>9165</v>
       </c>
       <c r="T478" s="9" t="s">
         <v>9160</v>
@@ -58223,7 +58225,7 @@
         <v>802</v>
       </c>
       <c r="S479" s="9" t="s">
-        <v>9166</v>
+        <v>9165</v>
       </c>
       <c r="T479" s="9" t="s">
         <v>9160</v>
@@ -58286,7 +58288,7 @@
         <v>1023</v>
       </c>
       <c r="S480" s="9" t="s">
-        <v>9166</v>
+        <v>9165</v>
       </c>
       <c r="T480" s="9" t="s">
         <v>9160</v>
@@ -58349,7 +58351,7 @@
         <v>1133</v>
       </c>
       <c r="S481" s="9" t="s">
-        <v>9166</v>
+        <v>9165</v>
       </c>
       <c r="T481" s="9" t="s">
         <v>9160</v>
@@ -58412,7 +58414,7 @@
         <v>1060</v>
       </c>
       <c r="S482" s="9" t="s">
-        <v>9165</v>
+        <v>9164</v>
       </c>
       <c r="T482" s="9" t="s">
         <v>9160</v>
@@ -58475,7 +58477,7 @@
         <v>1386</v>
       </c>
       <c r="S483" s="9" t="s">
-        <v>9166</v>
+        <v>9165</v>
       </c>
       <c r="T483" s="9" t="s">
         <v>9160</v>
@@ -58538,7 +58540,7 @@
         <v>319</v>
       </c>
       <c r="S484" s="9" t="s">
-        <v>9163</v>
+        <v>9162</v>
       </c>
       <c r="T484" s="9" t="s">
         <v>9160</v>
@@ -58601,7 +58603,7 @@
         <v>38</v>
       </c>
       <c r="S485" s="9" t="s">
-        <v>9164</v>
+        <v>9163</v>
       </c>
       <c r="T485" s="9" t="s">
         <v>9160</v>
@@ -58664,7 +58666,7 @@
         <v>563</v>
       </c>
       <c r="S486" s="9" t="s">
-        <v>9166</v>
+        <v>9165</v>
       </c>
       <c r="T486" s="9" t="s">
         <v>9160</v>
@@ -58727,7 +58729,7 @@
         <v>1443</v>
       </c>
       <c r="S487" s="9" t="s">
-        <v>9164</v>
+        <v>9163</v>
       </c>
       <c r="T487" s="9" t="s">
         <v>9160</v>
@@ -58790,7 +58792,7 @@
         <v>757</v>
       </c>
       <c r="S488" s="9" t="s">
-        <v>9164</v>
+        <v>9163</v>
       </c>
       <c r="T488" s="9" t="s">
         <v>9160</v>
@@ -58853,7 +58855,7 @@
         <v>258</v>
       </c>
       <c r="S489" s="9" t="s">
-        <v>9164</v>
+        <v>9163</v>
       </c>
       <c r="T489" s="9" t="s">
         <v>9160</v>
@@ -58916,7 +58918,7 @@
         <v>818</v>
       </c>
       <c r="S490" s="9" t="s">
-        <v>9164</v>
+        <v>9163</v>
       </c>
       <c r="T490" s="9" t="s">
         <v>9160</v>
@@ -58979,7 +58981,7 @@
         <v>287</v>
       </c>
       <c r="S491" s="9" t="s">
-        <v>9167</v>
+        <v>9166</v>
       </c>
       <c r="T491" s="9" t="s">
         <v>9160</v>
@@ -59042,7 +59044,7 @@
         <v>886</v>
       </c>
       <c r="S492" s="9" t="s">
-        <v>9166</v>
+        <v>9165</v>
       </c>
       <c r="T492" s="9" t="s">
         <v>9160</v>
@@ -59105,7 +59107,7 @@
         <v>139</v>
       </c>
       <c r="S493" s="9" t="s">
-        <v>9166</v>
+        <v>9165</v>
       </c>
       <c r="T493" s="9" t="s">
         <v>9160</v>
@@ -59168,7 +59170,7 @@
         <v>239</v>
       </c>
       <c r="S494" s="9" t="s">
-        <v>9163</v>
+        <v>9162</v>
       </c>
       <c r="T494" s="9" t="s">
         <v>9160</v>
@@ -59231,7 +59233,7 @@
         <v>441</v>
       </c>
       <c r="S495" s="9" t="s">
-        <v>9163</v>
+        <v>9162</v>
       </c>
       <c r="T495" s="9" t="s">
         <v>9160</v>
@@ -59294,7 +59296,7 @@
         <v>1430</v>
       </c>
       <c r="S496" s="9" t="s">
-        <v>9167</v>
+        <v>9166</v>
       </c>
       <c r="T496" s="9" t="s">
         <v>9160</v>
@@ -59357,7 +59359,7 @@
         <v>419</v>
       </c>
       <c r="S497" s="9" t="s">
-        <v>9163</v>
+        <v>9162</v>
       </c>
       <c r="T497" s="9" t="s">
         <v>9160</v>
@@ -59420,7 +59422,7 @@
         <v>411</v>
       </c>
       <c r="S498" s="9" t="s">
-        <v>9167</v>
+        <v>9166</v>
       </c>
       <c r="T498" s="9" t="s">
         <v>9160</v>
@@ -59483,7 +59485,7 @@
         <v>456</v>
       </c>
       <c r="S499" s="9" t="s">
-        <v>9162</v>
+        <v>9161</v>
       </c>
       <c r="T499" s="9" t="s">
         <v>9160</v>
@@ -59546,7 +59548,7 @@
         <v>239</v>
       </c>
       <c r="S500" s="9" t="s">
-        <v>9164</v>
+        <v>9163</v>
       </c>
       <c r="T500" s="9" t="s">
         <v>9160</v>
@@ -59609,7 +59611,7 @@
         <v>771</v>
       </c>
       <c r="S501" s="9" t="s">
-        <v>9166</v>
+        <v>9165</v>
       </c>
       <c r="T501" s="9" t="s">
         <v>9160</v>
@@ -59672,7 +59674,7 @@
         <v>694</v>
       </c>
       <c r="S502" s="9" t="s">
-        <v>9165</v>
+        <v>9164</v>
       </c>
       <c r="T502" s="9" t="s">
         <v>9160</v>
@@ -59735,7 +59737,7 @@
         <v>563</v>
       </c>
       <c r="S503" s="9" t="s">
-        <v>9163</v>
+        <v>9162</v>
       </c>
       <c r="T503" s="9" t="s">
         <v>9160</v>
@@ -59798,7 +59800,7 @@
         <v>550</v>
       </c>
       <c r="S504" s="9" t="s">
-        <v>9163</v>
+        <v>9162</v>
       </c>
       <c r="T504" s="9" t="s">
         <v>9160</v>
@@ -59861,7 +59863,7 @@
         <v>1142</v>
       </c>
       <c r="S505" s="9" t="s">
-        <v>9163</v>
+        <v>9162</v>
       </c>
       <c r="T505" s="9" t="s">
         <v>9160</v>
@@ -59924,7 +59926,7 @@
         <v>875</v>
       </c>
       <c r="S506" s="9" t="s">
-        <v>9164</v>
+        <v>9163</v>
       </c>
       <c r="T506" s="9" t="s">
         <v>9160</v>
@@ -59987,7 +59989,7 @@
         <v>371</v>
       </c>
       <c r="S507" s="9" t="s">
-        <v>9162</v>
+        <v>9161</v>
       </c>
       <c r="T507" s="9" t="s">
         <v>9160</v>
@@ -60050,7 +60052,7 @@
         <v>186</v>
       </c>
       <c r="S508" s="9" t="s">
-        <v>9163</v>
+        <v>9162</v>
       </c>
       <c r="T508" s="9" t="s">
         <v>9160</v>
@@ -60113,7 +60115,7 @@
         <v>542</v>
       </c>
       <c r="S509" s="9" t="s">
-        <v>9167</v>
+        <v>9166</v>
       </c>
       <c r="T509" s="9" t="s">
         <v>9160</v>
@@ -60176,7 +60178,7 @@
         <v>409</v>
       </c>
       <c r="S510" s="9" t="s">
-        <v>9167</v>
+        <v>9166</v>
       </c>
       <c r="T510" s="9" t="s">
         <v>9160</v>
@@ -60239,7 +60241,7 @@
         <v>571</v>
       </c>
       <c r="S511" s="9" t="s">
-        <v>9163</v>
+        <v>9162</v>
       </c>
       <c r="T511" s="9" t="s">
         <v>9160</v>
@@ -60302,7 +60304,7 @@
         <v>811</v>
       </c>
       <c r="S512" s="9" t="s">
-        <v>9166</v>
+        <v>9165</v>
       </c>
       <c r="T512" s="9" t="s">
         <v>9160</v>
@@ -60365,7 +60367,7 @@
         <v>802</v>
       </c>
       <c r="S513" s="9" t="s">
-        <v>9167</v>
+        <v>9166</v>
       </c>
       <c r="T513" s="9" t="s">
         <v>9160</v>
@@ -60428,7 +60430,7 @@
         <v>393</v>
       </c>
       <c r="S514" s="9" t="s">
-        <v>9165</v>
+        <v>9164</v>
       </c>
       <c r="T514" s="9" t="s">
         <v>9160</v>
@@ -60491,7 +60493,7 @@
         <v>1323</v>
       </c>
       <c r="S515" s="9" t="s">
-        <v>9167</v>
+        <v>9166</v>
       </c>
       <c r="T515" s="9" t="s">
         <v>9160</v>
@@ -60554,7 +60556,7 @@
         <v>305</v>
       </c>
       <c r="S516" s="9" t="s">
-        <v>9162</v>
+        <v>9161</v>
       </c>
       <c r="T516" s="9" t="s">
         <v>9160</v>
@@ -60617,7 +60619,7 @@
         <v>755</v>
       </c>
       <c r="S517" s="9" t="s">
-        <v>9165</v>
+        <v>9164</v>
       </c>
       <c r="T517" s="9" t="s">
         <v>9160</v>
@@ -60680,7 +60682,7 @@
         <v>324</v>
       </c>
       <c r="S518" s="9" t="s">
-        <v>9165</v>
+        <v>9164</v>
       </c>
       <c r="T518" s="9" t="s">
         <v>9160</v>
@@ -60743,7 +60745,7 @@
         <v>77</v>
       </c>
       <c r="S519" s="9" t="s">
-        <v>9165</v>
+        <v>9164</v>
       </c>
       <c r="T519" s="9" t="s">
         <v>9160</v>
@@ -60806,7 +60808,7 @@
         <v>243</v>
       </c>
       <c r="S520" s="9" t="s">
-        <v>9167</v>
+        <v>9166</v>
       </c>
       <c r="T520" s="9" t="s">
         <v>9160</v>
@@ -60869,7 +60871,7 @@
         <v>1042</v>
       </c>
       <c r="S521" s="9" t="s">
-        <v>9163</v>
+        <v>9162</v>
       </c>
       <c r="T521" s="9" t="s">
         <v>9160</v>
@@ -60932,7 +60934,7 @@
         <v>881</v>
       </c>
       <c r="S522" s="9" t="s">
-        <v>9162</v>
+        <v>9161</v>
       </c>
       <c r="T522" s="9" t="s">
         <v>9160</v>
@@ -60995,7 +60997,7 @@
         <v>1218</v>
       </c>
       <c r="S523" s="9" t="s">
-        <v>9163</v>
+        <v>9162</v>
       </c>
       <c r="T523" s="9" t="s">
         <v>9160</v>
@@ -61058,7 +61060,7 @@
         <v>696</v>
       </c>
       <c r="S524" s="9" t="s">
-        <v>9167</v>
+        <v>9166</v>
       </c>
       <c r="T524" s="9" t="s">
         <v>9160</v>
@@ -61121,7 +61123,7 @@
         <v>454</v>
       </c>
       <c r="S525" s="9" t="s">
-        <v>9166</v>
+        <v>9165</v>
       </c>
       <c r="T525" s="9" t="s">
         <v>9160</v>
@@ -61184,7 +61186,7 @@
         <v>1315</v>
       </c>
       <c r="S526" s="9" t="s">
-        <v>9166</v>
+        <v>9165</v>
       </c>
       <c r="T526" s="9" t="s">
         <v>9160</v>
@@ -61247,7 +61249,7 @@
         <v>678</v>
       </c>
       <c r="S527" s="9" t="s">
-        <v>9163</v>
+        <v>9162</v>
       </c>
       <c r="T527" s="9" t="s">
         <v>9160</v>
@@ -61310,7 +61312,7 @@
         <v>182</v>
       </c>
       <c r="S528" s="9" t="s">
-        <v>9166</v>
+        <v>9165</v>
       </c>
       <c r="T528" s="9" t="s">
         <v>9160</v>
@@ -61373,7 +61375,7 @@
         <v>714</v>
       </c>
       <c r="S529" s="9" t="s">
-        <v>9164</v>
+        <v>9163</v>
       </c>
       <c r="T529" s="9" t="s">
         <v>9160</v>
@@ -61436,7 +61438,7 @@
         <v>411</v>
       </c>
       <c r="S530" s="9" t="s">
-        <v>9164</v>
+        <v>9163</v>
       </c>
       <c r="T530" s="9" t="s">
         <v>9160</v>
@@ -61499,7 +61501,7 @@
         <v>1298</v>
       </c>
       <c r="S531" s="9" t="s">
-        <v>9163</v>
+        <v>9162</v>
       </c>
       <c r="T531" s="9" t="s">
         <v>9160</v>
@@ -61562,7 +61564,7 @@
         <v>277</v>
       </c>
       <c r="S532" s="9" t="s">
-        <v>9167</v>
+        <v>9166</v>
       </c>
       <c r="T532" s="9" t="s">
         <v>9160</v>
@@ -61625,7 +61627,7 @@
         <v>74</v>
       </c>
       <c r="S533" s="9" t="s">
-        <v>9167</v>
+        <v>9166</v>
       </c>
       <c r="T533" s="9" t="s">
         <v>9160</v>
@@ -61688,7 +61690,7 @@
         <v>498</v>
       </c>
       <c r="S534" s="9" t="s">
-        <v>9167</v>
+        <v>9166</v>
       </c>
       <c r="T534" s="9" t="s">
         <v>9160</v>
@@ -61751,7 +61753,7 @@
         <v>236</v>
       </c>
       <c r="S535" s="9" t="s">
-        <v>9163</v>
+        <v>9162</v>
       </c>
       <c r="T535" s="9" t="s">
         <v>9160</v>
@@ -61814,7 +61816,7 @@
         <v>586</v>
       </c>
       <c r="S536" s="9" t="s">
-        <v>9165</v>
+        <v>9164</v>
       </c>
       <c r="T536" s="9" t="s">
         <v>9160</v>
@@ -61877,7 +61879,7 @@
         <v>359</v>
       </c>
       <c r="S537" s="9" t="s">
-        <v>9165</v>
+        <v>9164</v>
       </c>
       <c r="T537" s="9" t="s">
         <v>9160</v>
@@ -61940,7 +61942,7 @@
         <v>49</v>
       </c>
       <c r="S538" s="9" t="s">
-        <v>9162</v>
+        <v>9161</v>
       </c>
       <c r="T538" s="9" t="s">
         <v>9160</v>
@@ -62003,7 +62005,7 @@
         <v>822</v>
       </c>
       <c r="S539" s="9" t="s">
-        <v>9167</v>
+        <v>9166</v>
       </c>
       <c r="T539" s="9" t="s">
         <v>9160</v>
@@ -62066,7 +62068,7 @@
         <v>1220</v>
       </c>
       <c r="S540" s="9" t="s">
-        <v>9163</v>
+        <v>9162</v>
       </c>
       <c r="T540" s="9" t="s">
         <v>9160</v>
@@ -62129,7 +62131,7 @@
         <v>1273</v>
       </c>
       <c r="S541" s="9" t="s">
-        <v>9162</v>
+        <v>9161</v>
       </c>
       <c r="T541" s="9" t="s">
         <v>9160</v>
@@ -62192,7 +62194,7 @@
         <v>397</v>
       </c>
       <c r="S542" s="9" t="s">
-        <v>9162</v>
+        <v>9161</v>
       </c>
       <c r="T542" s="9" t="s">
         <v>9160</v>
@@ -62255,7 +62257,7 @@
         <v>903</v>
       </c>
       <c r="S543" s="9" t="s">
-        <v>9167</v>
+        <v>9166</v>
       </c>
       <c r="T543" s="9" t="s">
         <v>9160</v>
@@ -62318,7 +62320,7 @@
         <v>546</v>
       </c>
       <c r="S544" s="9" t="s">
-        <v>9162</v>
+        <v>9161</v>
       </c>
       <c r="T544" s="9" t="s">
         <v>9160</v>
@@ -62381,7 +62383,7 @@
         <v>897</v>
       </c>
       <c r="S545" s="9" t="s">
-        <v>9164</v>
+        <v>9163</v>
       </c>
       <c r="T545" s="9" t="s">
         <v>9160</v>
@@ -62444,7 +62446,7 @@
         <v>1345</v>
       </c>
       <c r="S546" s="9" t="s">
-        <v>9162</v>
+        <v>9161</v>
       </c>
       <c r="T546" s="9" t="s">
         <v>9160</v>
@@ -62507,7 +62509,7 @@
         <v>754</v>
       </c>
       <c r="S547" s="9" t="s">
-        <v>9167</v>
+        <v>9166</v>
       </c>
       <c r="T547" s="9" t="s">
         <v>9160</v>
@@ -62570,7 +62572,7 @@
         <v>206</v>
       </c>
       <c r="S548" s="9" t="s">
-        <v>9166</v>
+        <v>9165</v>
       </c>
       <c r="T548" s="9" t="s">
         <v>9160</v>
@@ -62633,7 +62635,7 @@
         <v>390</v>
       </c>
       <c r="S549" s="9" t="s">
-        <v>9165</v>
+        <v>9164</v>
       </c>
       <c r="T549" s="9" t="s">
         <v>9160</v>
@@ -62696,7 +62698,7 @@
         <v>1182</v>
       </c>
       <c r="S550" s="9" t="s">
-        <v>9162</v>
+        <v>9161</v>
       </c>
       <c r="T550" s="9" t="s">
         <v>9160</v>
@@ -62759,7 +62761,7 @@
         <v>964</v>
       </c>
       <c r="S551" s="9" t="s">
-        <v>9164</v>
+        <v>9163</v>
       </c>
       <c r="T551" s="9" t="s">
         <v>9160</v>
@@ -62822,7 +62824,7 @@
         <v>1021</v>
       </c>
       <c r="S552" s="9" t="s">
-        <v>9165</v>
+        <v>9164</v>
       </c>
       <c r="T552" s="9" t="s">
         <v>9160</v>
@@ -62885,7 +62887,7 @@
         <v>362</v>
       </c>
       <c r="S553" s="9" t="s">
-        <v>9166</v>
+        <v>9165</v>
       </c>
       <c r="T553" s="9" t="s">
         <v>9160</v>
@@ -62948,7 +62950,7 @@
         <v>706</v>
       </c>
       <c r="S554" s="9" t="s">
-        <v>9167</v>
+        <v>9166</v>
       </c>
       <c r="T554" s="9" t="s">
         <v>9160</v>
@@ -63011,7 +63013,7 @@
         <v>709</v>
       </c>
       <c r="S555" s="9" t="s">
-        <v>9162</v>
+        <v>9161</v>
       </c>
       <c r="T555" s="9" t="s">
         <v>9160</v>
@@ -63074,7 +63076,7 @@
         <v>1051</v>
       </c>
       <c r="S556" s="9" t="s">
-        <v>9164</v>
+        <v>9163</v>
       </c>
       <c r="T556" s="9" t="s">
         <v>9160</v>
@@ -63137,7 +63139,7 @@
         <v>1021</v>
       </c>
       <c r="S557" s="9" t="s">
-        <v>9163</v>
+        <v>9162</v>
       </c>
       <c r="T557" s="9" t="s">
         <v>9160</v>
@@ -63200,7 +63202,7 @@
         <v>332</v>
       </c>
       <c r="S558" s="9" t="s">
-        <v>9167</v>
+        <v>9166</v>
       </c>
       <c r="T558" s="9" t="s">
         <v>9160</v>
@@ -63263,7 +63265,7 @@
         <v>686</v>
       </c>
       <c r="S559" s="9" t="s">
-        <v>9162</v>
+        <v>9161</v>
       </c>
       <c r="T559" s="9" t="s">
         <v>9160</v>
@@ -63326,7 +63328,7 @@
         <v>360</v>
       </c>
       <c r="S560" s="9" t="s">
-        <v>9164</v>
+        <v>9163</v>
       </c>
       <c r="T560" s="9" t="s">
         <v>9160</v>
@@ -63389,7 +63391,7 @@
         <v>688</v>
       </c>
       <c r="S561" s="9" t="s">
-        <v>9162</v>
+        <v>9161</v>
       </c>
       <c r="T561" s="9" t="s">
         <v>9160</v>
@@ -63452,7 +63454,7 @@
         <v>378</v>
       </c>
       <c r="S562" s="9" t="s">
-        <v>9166</v>
+        <v>9165</v>
       </c>
       <c r="T562" s="9" t="s">
         <v>9160</v>
@@ -63515,7 +63517,7 @@
         <v>1430</v>
       </c>
       <c r="S563" s="9" t="s">
-        <v>9166</v>
+        <v>9165</v>
       </c>
       <c r="T563" s="9" t="s">
         <v>9160</v>
@@ -63578,7 +63580,7 @@
         <v>230</v>
       </c>
       <c r="S564" s="9" t="s">
-        <v>9162</v>
+        <v>9161</v>
       </c>
       <c r="T564" s="9" t="s">
         <v>9160</v>
@@ -63641,7 +63643,7 @@
         <v>1345</v>
       </c>
       <c r="S565" s="9" t="s">
-        <v>9165</v>
+        <v>9164</v>
       </c>
       <c r="T565" s="9" t="s">
         <v>9160</v>
@@ -63704,7 +63706,7 @@
         <v>432</v>
       </c>
       <c r="S566" s="9" t="s">
-        <v>9167</v>
+        <v>9166</v>
       </c>
       <c r="T566" s="9" t="s">
         <v>9160</v>
@@ -63767,7 +63769,7 @@
         <v>124</v>
       </c>
       <c r="S567" s="9" t="s">
-        <v>9166</v>
+        <v>9165</v>
       </c>
       <c r="T567" s="9" t="s">
         <v>9160</v>
@@ -63830,7 +63832,7 @@
         <v>20</v>
       </c>
       <c r="S568" s="9" t="s">
-        <v>9167</v>
+        <v>9166</v>
       </c>
       <c r="T568" s="9" t="s">
         <v>9160</v>
@@ -63893,7 +63895,7 @@
         <v>771</v>
       </c>
       <c r="S569" s="9" t="s">
-        <v>9162</v>
+        <v>9161</v>
       </c>
       <c r="T569" s="9" t="s">
         <v>9160</v>
@@ -63956,7 +63958,7 @@
         <v>45</v>
       </c>
       <c r="S570" s="9" t="s">
-        <v>9163</v>
+        <v>9162</v>
       </c>
       <c r="T570" s="9" t="s">
         <v>9160</v>
@@ -64019,7 +64021,7 @@
         <v>1085</v>
       </c>
       <c r="S571" s="9" t="s">
-        <v>9162</v>
+        <v>9161</v>
       </c>
       <c r="T571" s="9" t="s">
         <v>9160</v>
@@ -64082,7 +64084,7 @@
         <v>349</v>
       </c>
       <c r="S572" s="9" t="s">
-        <v>9162</v>
+        <v>9161</v>
       </c>
       <c r="T572" s="9" t="s">
         <v>9160</v>
@@ -64145,7 +64147,7 @@
         <v>449</v>
       </c>
       <c r="S573" s="9" t="s">
-        <v>9165</v>
+        <v>9164</v>
       </c>
       <c r="T573" s="9" t="s">
         <v>9160</v>
@@ -64208,7 +64210,7 @@
         <v>697</v>
       </c>
       <c r="S574" s="9" t="s">
-        <v>9167</v>
+        <v>9166</v>
       </c>
       <c r="T574" s="9" t="s">
         <v>9160</v>
@@ -64271,7 +64273,7 @@
         <v>446</v>
       </c>
       <c r="S575" s="9" t="s">
-        <v>9166</v>
+        <v>9165</v>
       </c>
       <c r="T575" s="9" t="s">
         <v>9160</v>
@@ -64334,7 +64336,7 @@
         <v>187</v>
       </c>
       <c r="S576" s="9" t="s">
-        <v>9165</v>
+        <v>9164</v>
       </c>
       <c r="T576" s="9" t="s">
         <v>9160</v>
@@ -64397,7 +64399,7 @@
         <v>492</v>
       </c>
       <c r="S577" s="9" t="s">
-        <v>9167</v>
+        <v>9166</v>
       </c>
       <c r="T577" s="9" t="s">
         <v>9160</v>
@@ -64460,7 +64462,7 @@
         <v>89</v>
       </c>
       <c r="S578" s="9" t="s">
-        <v>9166</v>
+        <v>9165</v>
       </c>
       <c r="T578" s="9" t="s">
         <v>9160</v>
@@ -64523,7 +64525,7 @@
         <v>500</v>
       </c>
       <c r="S579" s="9" t="s">
-        <v>9167</v>
+        <v>9166</v>
       </c>
       <c r="T579" s="9" t="s">
         <v>9160</v>
@@ -64586,7 +64588,7 @@
         <v>1133</v>
       </c>
       <c r="S580" s="9" t="s">
-        <v>9162</v>
+        <v>9161</v>
       </c>
       <c r="T580" s="9" t="s">
         <v>9160</v>
@@ -64649,7 +64651,7 @@
         <v>837</v>
       </c>
       <c r="S581" s="9" t="s">
-        <v>9166</v>
+        <v>9165</v>
       </c>
       <c r="T581" s="9" t="s">
         <v>9160</v>
@@ -64712,7 +64714,7 @@
         <v>1127</v>
       </c>
       <c r="S582" s="9" t="s">
-        <v>9167</v>
+        <v>9166</v>
       </c>
       <c r="T582" s="9" t="s">
         <v>9160</v>
@@ -64775,7 +64777,7 @@
         <v>1042</v>
       </c>
       <c r="S583" s="9" t="s">
-        <v>9165</v>
+        <v>9164</v>
       </c>
       <c r="T583" s="9" t="s">
         <v>9160</v>
@@ -64838,7 +64840,7 @@
         <v>887</v>
       </c>
       <c r="S584" s="9" t="s">
-        <v>9164</v>
+        <v>9163</v>
       </c>
       <c r="T584" s="9" t="s">
         <v>9160</v>
@@ -64901,7 +64903,7 @@
         <v>1333</v>
       </c>
       <c r="S585" s="9" t="s">
-        <v>9163</v>
+        <v>9162</v>
       </c>
       <c r="T585" s="9" t="s">
         <v>9160</v>
@@ -64964,7 +64966,7 @@
         <v>35</v>
       </c>
       <c r="S586" s="9" t="s">
-        <v>9166</v>
+        <v>9165</v>
       </c>
       <c r="T586" s="9" t="s">
         <v>9160</v>
@@ -65027,7 +65029,7 @@
         <v>1426</v>
       </c>
       <c r="S587" s="9" t="s">
-        <v>9167</v>
+        <v>9166</v>
       </c>
       <c r="T587" s="9" t="s">
         <v>9160</v>
@@ -65090,7 +65092,7 @@
         <v>833</v>
       </c>
       <c r="S588" s="9" t="s">
-        <v>9166</v>
+        <v>9165</v>
       </c>
       <c r="T588" s="9" t="s">
         <v>9160</v>
@@ -65153,7 +65155,7 @@
         <v>796</v>
       </c>
       <c r="S589" s="9" t="s">
-        <v>9164</v>
+        <v>9163</v>
       </c>
       <c r="T589" s="9" t="s">
         <v>9160</v>
@@ -65216,7 +65218,7 @@
         <v>665</v>
       </c>
       <c r="S590" s="9" t="s">
-        <v>9165</v>
+        <v>9164</v>
       </c>
       <c r="T590" s="9" t="s">
         <v>9160</v>
@@ -65279,7 +65281,7 @@
         <v>1273</v>
       </c>
       <c r="S591" s="9" t="s">
-        <v>9167</v>
+        <v>9166</v>
       </c>
       <c r="T591" s="9" t="s">
         <v>9160</v>
@@ -65342,7 +65344,7 @@
         <v>1212</v>
       </c>
       <c r="S592" s="9" t="s">
-        <v>9165</v>
+        <v>9164</v>
       </c>
       <c r="T592" s="9" t="s">
         <v>9160</v>
@@ -65405,7 +65407,7 @@
         <v>429</v>
       </c>
       <c r="S593" s="9" t="s">
-        <v>9167</v>
+        <v>9166</v>
       </c>
       <c r="T593" s="9" t="s">
         <v>9160</v>
@@ -65468,7 +65470,7 @@
         <v>1215</v>
       </c>
       <c r="S594" s="9" t="s">
-        <v>9162</v>
+        <v>9161</v>
       </c>
       <c r="T594" s="9" t="s">
         <v>9160</v>
@@ -65531,7 +65533,7 @@
         <v>384</v>
       </c>
       <c r="S595" s="9" t="s">
-        <v>9162</v>
+        <v>9161</v>
       </c>
       <c r="T595" s="9" t="s">
         <v>9160</v>
@@ -65594,7 +65596,7 @@
         <v>468</v>
       </c>
       <c r="S596" s="9" t="s">
-        <v>9165</v>
+        <v>9164</v>
       </c>
       <c r="T596" s="9" t="s">
         <v>9160</v>
@@ -65657,7 +65659,7 @@
         <v>526</v>
       </c>
       <c r="S597" s="9" t="s">
-        <v>9165</v>
+        <v>9164</v>
       </c>
       <c r="T597" s="9" t="s">
         <v>9160</v>
@@ -65720,7 +65722,7 @@
         <v>1104</v>
       </c>
       <c r="S598" s="9" t="s">
-        <v>9163</v>
+        <v>9162</v>
       </c>
       <c r="T598" s="9" t="s">
         <v>9160</v>
@@ -65783,7 +65785,7 @@
         <v>255</v>
       </c>
       <c r="S599" s="9" t="s">
-        <v>9166</v>
+        <v>9165</v>
       </c>
       <c r="T599" s="9" t="s">
         <v>9160</v>
@@ -65846,7 +65848,7 @@
         <v>1410</v>
       </c>
       <c r="S600" s="9" t="s">
-        <v>9166</v>
+        <v>9165</v>
       </c>
       <c r="T600" s="9" t="s">
         <v>9160</v>
@@ -65909,7 +65911,7 @@
         <v>145</v>
       </c>
       <c r="S601" s="9" t="s">
-        <v>9165</v>
+        <v>9164</v>
       </c>
       <c r="T601" s="9" t="s">
         <v>9160</v>
@@ -65972,7 +65974,7 @@
         <v>202</v>
       </c>
       <c r="S602" s="9" t="s">
-        <v>9166</v>
+        <v>9165</v>
       </c>
       <c r="T602" s="9" t="s">
         <v>9160</v>
@@ -66035,7 +66037,7 @@
         <v>435</v>
       </c>
       <c r="S603" s="9" t="s">
-        <v>9165</v>
+        <v>9164</v>
       </c>
       <c r="T603" s="9" t="s">
         <v>9160</v>
@@ -66098,7 +66100,7 @@
         <v>1090</v>
       </c>
       <c r="S604" s="9" t="s">
-        <v>9163</v>
+        <v>9162</v>
       </c>
       <c r="T604" s="9" t="s">
         <v>9160</v>
@@ -66161,7 +66163,7 @@
         <v>195</v>
       </c>
       <c r="S605" s="9" t="s">
-        <v>9167</v>
+        <v>9166</v>
       </c>
       <c r="T605" s="9" t="s">
         <v>9160</v>
@@ -66224,7 +66226,7 @@
         <v>735</v>
       </c>
       <c r="S606" s="9" t="s">
-        <v>9163</v>
+        <v>9162</v>
       </c>
       <c r="T606" s="9" t="s">
         <v>9160</v>
@@ -66287,7 +66289,7 @@
         <v>1085</v>
       </c>
       <c r="S607" s="9" t="s">
-        <v>9164</v>
+        <v>9163</v>
       </c>
       <c r="T607" s="9" t="s">
         <v>9160</v>
@@ -66350,7 +66352,7 @@
         <v>1127</v>
       </c>
       <c r="S608" s="9" t="s">
-        <v>9162</v>
+        <v>9161</v>
       </c>
       <c r="T608" s="9" t="s">
         <v>9160</v>
@@ -66413,7 +66415,7 @@
         <v>265</v>
       </c>
       <c r="S609" s="9" t="s">
-        <v>9166</v>
+        <v>9165</v>
       </c>
       <c r="T609" s="9" t="s">
         <v>9160</v>
@@ -66476,7 +66478,7 @@
         <v>794</v>
       </c>
       <c r="S610" s="9" t="s">
-        <v>9167</v>
+        <v>9166</v>
       </c>
       <c r="T610" s="9" t="s">
         <v>9160</v>
@@ -66539,7 +66541,7 @@
         <v>1975</v>
       </c>
       <c r="S611" s="9" t="s">
-        <v>9165</v>
+        <v>9164</v>
       </c>
       <c r="T611" s="9" t="s">
         <v>9160</v>
@@ -66602,7 +66604,7 @@
         <v>1176</v>
       </c>
       <c r="S612" s="9" t="s">
-        <v>9162</v>
+        <v>9161</v>
       </c>
       <c r="T612" s="9" t="s">
         <v>9160</v>
@@ -66665,7 +66667,7 @@
         <v>34</v>
       </c>
       <c r="S613" s="9" t="s">
-        <v>9166</v>
+        <v>9165</v>
       </c>
       <c r="T613" s="9" t="s">
         <v>9160</v>
@@ -66728,7 +66730,7 @@
         <v>900</v>
       </c>
       <c r="S614" s="9" t="s">
-        <v>9165</v>
+        <v>9164</v>
       </c>
       <c r="T614" s="9" t="s">
         <v>9160</v>
@@ -66791,7 +66793,7 @@
         <v>1127</v>
       </c>
       <c r="S615" s="9" t="s">
-        <v>9163</v>
+        <v>9162</v>
       </c>
       <c r="T615" s="9" t="s">
         <v>9160</v>
@@ -66854,7 +66856,7 @@
         <v>85</v>
       </c>
       <c r="S616" s="9" t="s">
-        <v>9167</v>
+        <v>9166</v>
       </c>
       <c r="T616" s="9" t="s">
         <v>9160</v>
@@ -66917,7 +66919,7 @@
         <v>84</v>
       </c>
       <c r="S617" s="9" t="s">
-        <v>9164</v>
+        <v>9163</v>
       </c>
       <c r="T617" s="9" t="s">
         <v>9160</v>
@@ -66980,7 +66982,7 @@
         <v>274</v>
       </c>
       <c r="S618" s="9" t="s">
-        <v>9166</v>
+        <v>9165</v>
       </c>
       <c r="T618" s="9" t="s">
         <v>9160</v>
@@ -67043,7 +67045,7 @@
         <v>1116</v>
       </c>
       <c r="S619" s="9" t="s">
-        <v>9163</v>
+        <v>9162</v>
       </c>
       <c r="T619" s="9" t="s">
         <v>9160</v>
@@ -67106,7 +67108,7 @@
         <v>745</v>
       </c>
       <c r="S620" s="9" t="s">
-        <v>9167</v>
+        <v>9166</v>
       </c>
       <c r="T620" s="9" t="s">
         <v>9160</v>
@@ -67169,7 +67171,7 @@
         <v>289</v>
       </c>
       <c r="S621" s="9" t="s">
-        <v>9162</v>
+        <v>9161</v>
       </c>
       <c r="T621" s="9" t="s">
         <v>9160</v>
@@ -67232,7 +67234,7 @@
         <v>415</v>
       </c>
       <c r="S622" s="9" t="s">
-        <v>9167</v>
+        <v>9166</v>
       </c>
       <c r="T622" s="9" t="s">
         <v>9160</v>
@@ -67295,7 +67297,7 @@
         <v>832</v>
       </c>
       <c r="S623" s="9" t="s">
-        <v>9165</v>
+        <v>9164</v>
       </c>
       <c r="T623" s="9" t="s">
         <v>9160</v>
@@ -67358,7 +67360,7 @@
         <v>1230</v>
       </c>
       <c r="S624" s="9" t="s">
-        <v>9165</v>
+        <v>9164</v>
       </c>
       <c r="T624" s="9" t="s">
         <v>9160</v>
@@ -67421,7 +67423,7 @@
         <v>1145</v>
       </c>
       <c r="S625" s="9" t="s">
-        <v>9162</v>
+        <v>9161</v>
       </c>
       <c r="T625" s="9" t="s">
         <v>9160</v>
@@ -67484,7 +67486,7 @@
         <v>162</v>
       </c>
       <c r="S626" s="9" t="s">
-        <v>9162</v>
+        <v>9161</v>
       </c>
       <c r="T626" s="9" t="s">
         <v>9160</v>
@@ -67547,7 +67549,7 @@
         <v>530</v>
       </c>
       <c r="S627" s="9" t="s">
-        <v>9167</v>
+        <v>9166</v>
       </c>
       <c r="T627" s="9" t="s">
         <v>9160</v>
@@ -67610,7 +67612,7 @@
         <v>671</v>
       </c>
       <c r="S628" s="9" t="s">
-        <v>9165</v>
+        <v>9164</v>
       </c>
       <c r="T628" s="9" t="s">
         <v>9160</v>
@@ -67673,7 +67675,7 @@
         <v>796</v>
       </c>
       <c r="S629" s="9" t="s">
-        <v>9164</v>
+        <v>9163</v>
       </c>
       <c r="T629" s="9" t="s">
         <v>9160</v>
@@ -67736,7 +67738,7 @@
         <v>202</v>
       </c>
       <c r="S630" s="9" t="s">
-        <v>9167</v>
+        <v>9166</v>
       </c>
       <c r="T630" s="9" t="s">
         <v>9160</v>
@@ -67799,7 +67801,7 @@
         <v>1193</v>
       </c>
       <c r="S631" s="9" t="s">
-        <v>9166</v>
+        <v>9165</v>
       </c>
       <c r="T631" s="9" t="s">
         <v>9160</v>
@@ -67862,7 +67864,7 @@
         <v>341</v>
       </c>
       <c r="S632" s="9" t="s">
-        <v>9166</v>
+        <v>9165</v>
       </c>
       <c r="T632" s="9" t="s">
         <v>9160</v>
@@ -67925,7 +67927,7 @@
         <v>614</v>
       </c>
       <c r="S633" s="9" t="s">
-        <v>9166</v>
+        <v>9165</v>
       </c>
       <c r="T633" s="9" t="s">
         <v>9160</v>
@@ -67988,7 +67990,7 @@
         <v>938</v>
       </c>
       <c r="S634" s="9" t="s">
-        <v>9167</v>
+        <v>9166</v>
       </c>
       <c r="T634" s="9" t="s">
         <v>9160</v>
@@ -68051,7 +68053,7 @@
         <v>717</v>
       </c>
       <c r="S635" s="9" t="s">
-        <v>9163</v>
+        <v>9162</v>
       </c>
       <c r="T635" s="9" t="s">
         <v>9160</v>
@@ -68114,7 +68116,7 @@
         <v>5004</v>
       </c>
       <c r="S636" s="9" t="s">
-        <v>9162</v>
+        <v>9161</v>
       </c>
       <c r="T636" s="9" t="s">
         <v>9160</v>
@@ -68177,7 +68179,7 @@
         <v>143</v>
       </c>
       <c r="S637" s="9" t="s">
-        <v>9163</v>
+        <v>9162</v>
       </c>
       <c r="T637" s="9" t="s">
         <v>9160</v>
@@ -68240,7 +68242,7 @@
         <v>422</v>
       </c>
       <c r="S638" s="9" t="s">
-        <v>9165</v>
+        <v>9164</v>
       </c>
       <c r="T638" s="9" t="s">
         <v>9160</v>
@@ -68303,7 +68305,7 @@
         <v>1218</v>
       </c>
       <c r="S639" s="9" t="s">
-        <v>9166</v>
+        <v>9165</v>
       </c>
       <c r="T639" s="9" t="s">
         <v>9160</v>
@@ -68366,7 +68368,7 @@
         <v>732</v>
       </c>
       <c r="S640" s="9" t="s">
-        <v>9162</v>
+        <v>9161</v>
       </c>
       <c r="T640" s="9" t="s">
         <v>9160</v>
@@ -68429,7 +68431,7 @@
         <v>54</v>
       </c>
       <c r="S641" s="9" t="s">
-        <v>9165</v>
+        <v>9164</v>
       </c>
       <c r="T641" s="9" t="s">
         <v>9160</v>
@@ -68492,7 +68494,7 @@
         <v>573</v>
       </c>
       <c r="S642" s="9" t="s">
-        <v>9166</v>
+        <v>9165</v>
       </c>
       <c r="T642" s="9" t="s">
         <v>9160</v>
@@ -68555,7 +68557,7 @@
         <v>168</v>
       </c>
       <c r="S643" s="9" t="s">
-        <v>9164</v>
+        <v>9163</v>
       </c>
       <c r="T643" s="9" t="s">
         <v>9160</v>
@@ -68618,7 +68620,7 @@
         <v>324</v>
       </c>
       <c r="S644" s="9" t="s">
-        <v>9165</v>
+        <v>9164</v>
       </c>
       <c r="T644" s="9" t="s">
         <v>9160</v>
@@ -68681,7 +68683,7 @@
         <v>1021</v>
       </c>
       <c r="S645" s="9" t="s">
-        <v>9166</v>
+        <v>9165</v>
       </c>
       <c r="T645" s="9" t="s">
         <v>9160</v>
@@ -68744,7 +68746,7 @@
         <v>902</v>
       </c>
       <c r="S646" s="9" t="s">
-        <v>9163</v>
+        <v>9162</v>
       </c>
       <c r="T646" s="9" t="s">
         <v>9160</v>
@@ -68807,7 +68809,7 @@
         <v>1413</v>
       </c>
       <c r="S647" s="9" t="s">
-        <v>9164</v>
+        <v>9163</v>
       </c>
       <c r="T647" s="9" t="s">
         <v>9160</v>
@@ -68870,7 +68872,7 @@
         <v>954</v>
       </c>
       <c r="S648" s="9" t="s">
-        <v>9164</v>
+        <v>9163</v>
       </c>
       <c r="T648" s="9" t="s">
         <v>9160</v>
@@ -68933,7 +68935,7 @@
         <v>730</v>
       </c>
       <c r="S649" s="9" t="s">
-        <v>9165</v>
+        <v>9164</v>
       </c>
       <c r="T649" s="9" t="s">
         <v>9160</v>
@@ -68996,7 +68998,7 @@
         <v>814</v>
       </c>
       <c r="S650" s="9" t="s">
-        <v>9163</v>
+        <v>9162</v>
       </c>
       <c r="T650" s="9" t="s">
         <v>9160</v>
@@ -69059,7 +69061,7 @@
         <v>219</v>
       </c>
       <c r="S651" s="9" t="s">
-        <v>9164</v>
+        <v>9163</v>
       </c>
       <c r="T651" s="9" t="s">
         <v>9160</v>
@@ -69122,7 +69124,7 @@
         <v>1435</v>
       </c>
       <c r="S652" s="9" t="s">
-        <v>9167</v>
+        <v>9166</v>
       </c>
       <c r="T652" s="9" t="s">
         <v>9160</v>
@@ -69185,7 +69187,7 @@
         <v>169</v>
       </c>
       <c r="S653" s="9" t="s">
-        <v>9165</v>
+        <v>9164</v>
       </c>
       <c r="T653" s="9" t="s">
         <v>9160</v>
@@ -69248,7 +69250,7 @@
         <v>73</v>
       </c>
       <c r="S654" s="9" t="s">
-        <v>9163</v>
+        <v>9162</v>
       </c>
       <c r="T654" s="9" t="s">
         <v>9160</v>
@@ -69311,7 +69313,7 @@
         <v>6421</v>
       </c>
       <c r="S655" s="9" t="s">
-        <v>9167</v>
+        <v>9166</v>
       </c>
       <c r="T655" s="9" t="s">
         <v>9160</v>
@@ -69374,7 +69376,7 @@
         <v>1360</v>
       </c>
       <c r="S656" s="9" t="s">
-        <v>9165</v>
+        <v>9164</v>
       </c>
       <c r="T656" s="9" t="s">
         <v>9160</v>
@@ -69437,7 +69439,7 @@
         <v>491</v>
       </c>
       <c r="S657" s="9" t="s">
-        <v>9164</v>
+        <v>9163</v>
       </c>
       <c r="T657" s="9" t="s">
         <v>9160</v>
@@ -69500,7 +69502,7 @@
         <v>247</v>
       </c>
       <c r="S658" s="9" t="s">
-        <v>9164</v>
+        <v>9163</v>
       </c>
       <c r="T658" s="9" t="s">
         <v>9160</v>
@@ -69563,7 +69565,7 @@
         <v>106</v>
       </c>
       <c r="S659" s="9" t="s">
-        <v>9165</v>
+        <v>9164</v>
       </c>
       <c r="T659" s="9" t="s">
         <v>9160</v>
@@ -69626,7 +69628,7 @@
         <v>326</v>
       </c>
       <c r="S660" s="9" t="s">
-        <v>9165</v>
+        <v>9164</v>
       </c>
       <c r="T660" s="9" t="s">
         <v>9160</v>
@@ -69689,7 +69691,7 @@
         <v>406</v>
       </c>
       <c r="S661" s="9" t="s">
-        <v>9167</v>
+        <v>9166</v>
       </c>
       <c r="T661" s="9" t="s">
         <v>9160</v>
@@ -69752,7 +69754,7 @@
         <v>316</v>
       </c>
       <c r="S662" s="9" t="s">
-        <v>9165</v>
+        <v>9164</v>
       </c>
       <c r="T662" s="9" t="s">
         <v>9160</v>
@@ -69815,7 +69817,7 @@
         <v>1072</v>
       </c>
       <c r="S663" s="9" t="s">
-        <v>9166</v>
+        <v>9165</v>
       </c>
       <c r="T663" s="9" t="s">
         <v>9160</v>
@@ -69878,7 +69880,7 @@
         <v>1357</v>
       </c>
       <c r="S664" s="9" t="s">
-        <v>9162</v>
+        <v>9161</v>
       </c>
       <c r="T664" s="9" t="s">
         <v>9160</v>
@@ -69941,7 +69943,7 @@
         <v>1260</v>
       </c>
       <c r="S665" s="9" t="s">
-        <v>9166</v>
+        <v>9165</v>
       </c>
       <c r="T665" s="9" t="s">
         <v>9160</v>
@@ -70004,7 +70006,7 @@
         <v>268</v>
       </c>
       <c r="S666" s="9" t="s">
-        <v>9166</v>
+        <v>9165</v>
       </c>
       <c r="T666" s="9" t="s">
         <v>9160</v>
@@ -70067,7 +70069,7 @@
         <v>895</v>
       </c>
       <c r="S667" s="9" t="s">
-        <v>9163</v>
+        <v>9162</v>
       </c>
       <c r="T667" s="9" t="s">
         <v>9160</v>
@@ -70130,7 +70132,7 @@
         <v>1304</v>
       </c>
       <c r="S668" s="9" t="s">
-        <v>9164</v>
+        <v>9163</v>
       </c>
       <c r="T668" s="9" t="s">
         <v>9160</v>
@@ -70193,7 +70195,7 @@
         <v>684</v>
       </c>
       <c r="S669" s="9" t="s">
-        <v>9164</v>
+        <v>9163</v>
       </c>
       <c r="T669" s="9" t="s">
         <v>9160</v>
@@ -70256,7 +70258,7 @@
         <v>1201</v>
       </c>
       <c r="S670" s="9" t="s">
-        <v>9163</v>
+        <v>9162</v>
       </c>
       <c r="T670" s="9" t="s">
         <v>9160</v>
@@ -70319,7 +70321,7 @@
         <v>202</v>
       </c>
       <c r="S671" s="9" t="s">
-        <v>9166</v>
+        <v>9165</v>
       </c>
       <c r="T671" s="9" t="s">
         <v>9160</v>
@@ -70382,7 +70384,7 @@
         <v>92</v>
       </c>
       <c r="S672" s="9" t="s">
-        <v>9165</v>
+        <v>9164</v>
       </c>
       <c r="T672" s="9" t="s">
         <v>9160</v>
@@ -70445,7 +70447,7 @@
         <v>672</v>
       </c>
       <c r="S673" s="9" t="s">
-        <v>9163</v>
+        <v>9162</v>
       </c>
       <c r="T673" s="9" t="s">
         <v>9160</v>
@@ -70508,7 +70510,7 @@
         <v>371</v>
       </c>
       <c r="S674" s="9" t="s">
-        <v>9164</v>
+        <v>9163</v>
       </c>
       <c r="T674" s="9" t="s">
         <v>9160</v>
@@ -70571,7 +70573,7 @@
         <v>23</v>
       </c>
       <c r="S675" s="9" t="s">
-        <v>9163</v>
+        <v>9162</v>
       </c>
       <c r="T675" s="9" t="s">
         <v>9160</v>
@@ -70634,7 +70636,7 @@
         <v>532</v>
       </c>
       <c r="S676" s="9" t="s">
-        <v>9167</v>
+        <v>9166</v>
       </c>
       <c r="T676" s="9" t="s">
         <v>9160</v>
@@ -70697,7 +70699,7 @@
         <v>522</v>
       </c>
       <c r="S677" s="9" t="s">
-        <v>9163</v>
+        <v>9162</v>
       </c>
       <c r="T677" s="9" t="s">
         <v>9160</v>
@@ -70760,7 +70762,7 @@
         <v>1419</v>
       </c>
       <c r="S678" s="9" t="s">
-        <v>9162</v>
+        <v>9161</v>
       </c>
       <c r="T678" s="9" t="s">
         <v>9160</v>
@@ -70823,7 +70825,7 @@
         <v>168</v>
       </c>
       <c r="S679" s="9" t="s">
-        <v>9165</v>
+        <v>9164</v>
       </c>
       <c r="T679" s="9" t="s">
         <v>9160</v>
@@ -70886,7 +70888,7 @@
         <v>430</v>
       </c>
       <c r="S680" s="9" t="s">
-        <v>9164</v>
+        <v>9163</v>
       </c>
       <c r="T680" s="9" t="s">
         <v>9160</v>
@@ -70949,7 +70951,7 @@
         <v>492</v>
       </c>
       <c r="S681" s="9" t="s">
-        <v>9167</v>
+        <v>9166</v>
       </c>
       <c r="T681" s="9" t="s">
         <v>9160</v>
@@ -71012,7 +71014,7 @@
         <v>548</v>
       </c>
       <c r="S682" s="9" t="s">
-        <v>9162</v>
+        <v>9161</v>
       </c>
       <c r="T682" s="9" t="s">
         <v>9160</v>
@@ -71075,7 +71077,7 @@
         <v>814</v>
       </c>
       <c r="S683" s="9" t="s">
-        <v>9166</v>
+        <v>9165</v>
       </c>
       <c r="T683" s="9" t="s">
         <v>9160</v>
@@ -71138,7 +71140,7 @@
         <v>517</v>
       </c>
       <c r="S684" s="9" t="s">
-        <v>9165</v>
+        <v>9164</v>
       </c>
       <c r="T684" s="9" t="s">
         <v>9160</v>
@@ -71201,7 +71203,7 @@
         <v>649</v>
       </c>
       <c r="S685" s="9" t="s">
-        <v>9165</v>
+        <v>9164</v>
       </c>
       <c r="T685" s="9" t="s">
         <v>9160</v>
@@ -71264,7 +71266,7 @@
         <v>1188</v>
       </c>
       <c r="S686" s="9" t="s">
-        <v>9164</v>
+        <v>9163</v>
       </c>
       <c r="T686" s="9" t="s">
         <v>9160</v>
@@ -71327,7 +71329,7 @@
         <v>754</v>
       </c>
       <c r="S687" s="9" t="s">
-        <v>9163</v>
+        <v>9162</v>
       </c>
       <c r="T687" s="9" t="s">
         <v>9160</v>
@@ -71390,7 +71392,7 @@
         <v>366</v>
       </c>
       <c r="S688" s="9" t="s">
-        <v>9162</v>
+        <v>9161</v>
       </c>
       <c r="T688" s="9" t="s">
         <v>9160</v>
@@ -71453,7 +71455,7 @@
         <v>158</v>
       </c>
       <c r="S689" s="9" t="s">
-        <v>9167</v>
+        <v>9166</v>
       </c>
       <c r="T689" s="9" t="s">
         <v>9160</v>
@@ -71516,7 +71518,7 @@
         <v>701</v>
       </c>
       <c r="S690" s="9" t="s">
-        <v>9164</v>
+        <v>9163</v>
       </c>
       <c r="T690" s="9" t="s">
         <v>9160</v>
@@ -71579,7 +71581,7 @@
         <v>938</v>
       </c>
       <c r="S691" s="9" t="s">
-        <v>9165</v>
+        <v>9164</v>
       </c>
       <c r="T691" s="9" t="s">
         <v>9160</v>
@@ -71642,7 +71644,7 @@
         <v>382</v>
       </c>
       <c r="S692" s="9" t="s">
-        <v>9167</v>
+        <v>9166</v>
       </c>
       <c r="T692" s="9" t="s">
         <v>9160</v>
@@ -71705,7 +71707,7 @@
         <v>338</v>
       </c>
       <c r="S693" s="9" t="s">
-        <v>9162</v>
+        <v>9161</v>
       </c>
       <c r="T693" s="9" t="s">
         <v>9160</v>
@@ -71768,7 +71770,7 @@
         <v>1245</v>
       </c>
       <c r="S694" s="9" t="s">
-        <v>9162</v>
+        <v>9161</v>
       </c>
       <c r="T694" s="9" t="s">
         <v>9160</v>
@@ -71831,7 +71833,7 @@
         <v>607</v>
       </c>
       <c r="S695" s="9" t="s">
-        <v>9164</v>
+        <v>9163</v>
       </c>
       <c r="T695" s="9" t="s">
         <v>9160</v>
@@ -71894,7 +71896,7 @@
         <v>577</v>
       </c>
       <c r="S696" s="9" t="s">
-        <v>9162</v>
+        <v>9161</v>
       </c>
       <c r="T696" s="9" t="s">
         <v>9160</v>
@@ -71957,7 +71959,7 @@
         <v>991</v>
       </c>
       <c r="S697" s="9" t="s">
-        <v>9165</v>
+        <v>9164</v>
       </c>
       <c r="T697" s="9" t="s">
         <v>9160</v>
@@ -72020,7 +72022,7 @@
         <v>341</v>
       </c>
       <c r="S698" s="9" t="s">
-        <v>9162</v>
+        <v>9161</v>
       </c>
       <c r="T698" s="9" t="s">
         <v>9160</v>
@@ -72083,7 +72085,7 @@
         <v>186</v>
       </c>
       <c r="S699" s="9" t="s">
-        <v>9164</v>
+        <v>9163</v>
       </c>
       <c r="T699" s="9" t="s">
         <v>9160</v>
@@ -72146,7 +72148,7 @@
         <v>653</v>
       </c>
       <c r="S700" s="9" t="s">
-        <v>9163</v>
+        <v>9162</v>
       </c>
       <c r="T700" s="9" t="s">
         <v>9160</v>
@@ -72209,7 +72211,7 @@
         <v>377</v>
       </c>
       <c r="S701" s="9" t="s">
-        <v>9165</v>
+        <v>9164</v>
       </c>
       <c r="T701" s="9" t="s">
         <v>9160</v>

--- a/src/test/resources/data/NewLeadTestData.xlsx
+++ b/src/test/resources/data/NewLeadTestData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ntpduong\Project\Selenium_Java\src\test\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94A997C7-B570-4B9E-B970-D13A62D80BCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3095BF7-7171-4879-B1CB-5FF5FFDC20F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-24690" yWindow="1260" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28002,9 +28002,9 @@
   </sheetPr>
   <dimension ref="A1:V701"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V5" sqref="V5"/>
+      <selection pane="bottomLeft" activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
